--- a/nursery_monitoring/GB monitoring.xlsx
+++ b/nursery_monitoring/GB monitoring.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1272" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1518" uniqueCount="81">
   <si>
     <t>Date</t>
   </si>
@@ -268,7 +268,7 @@
     <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -283,6 +283,7 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font/>
   </fonts>
   <fills count="3">
     <fill>
@@ -304,7 +305,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -345,6 +346,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="166" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -580,7 +584,8 @@
   <cols>
     <col customWidth="1" min="3" max="3" width="10.71"/>
     <col customWidth="1" min="4" max="4" width="12.0"/>
-    <col hidden="1" min="5" max="6" width="14.43"/>
+    <col customWidth="1" min="9" max="9" width="18.0"/>
+    <col customWidth="1" min="10" max="10" width="15.14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -11489,280 +11494,2364 @@
       </c>
     </row>
     <row r="462">
-      <c r="I462" s="5"/>
+      <c r="A462" s="6">
+        <v>44568.0</v>
+      </c>
+      <c r="B462" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C462" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="D462" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G462" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="H462" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="I462" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J462" s="4">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="463">
-      <c r="I463" s="5"/>
+      <c r="A463" s="6">
+        <v>44568.0</v>
+      </c>
+      <c r="B463" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C463" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="D463" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G463" s="4">
+        <v>14.5</v>
+      </c>
+      <c r="H463" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="I463" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J463" s="4">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="464">
-      <c r="I464" s="5"/>
+      <c r="A464" s="6">
+        <v>44568.0</v>
+      </c>
+      <c r="B464" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C464" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="D464" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G464" s="4">
+        <v>8.5</v>
+      </c>
+      <c r="H464" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="I464" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J464" s="4">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="465">
-      <c r="I465" s="5"/>
+      <c r="A465" s="6">
+        <v>44568.0</v>
+      </c>
+      <c r="B465" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C465" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="D465" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G465" s="4">
+        <v>16.5</v>
+      </c>
+      <c r="H465" s="4">
+        <v>9.0</v>
+      </c>
+      <c r="I465" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J465" s="4">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="466">
-      <c r="I466" s="5"/>
+      <c r="A466" s="6">
+        <v>44568.0</v>
+      </c>
+      <c r="B466" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C466" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="D466" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="G466" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="H466" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="I466" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="J466" s="4">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="467">
-      <c r="I467" s="5"/>
+      <c r="A467" s="6">
+        <v>44568.0</v>
+      </c>
+      <c r="B467" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C467" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="D467" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G467" s="4">
+        <v>10.5</v>
+      </c>
+      <c r="H467" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="I467" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="J467" s="4">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="468">
-      <c r="I468" s="5"/>
+      <c r="A468" s="6">
+        <v>44568.0</v>
+      </c>
+      <c r="B468" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C468" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="D468" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G468" s="4">
+        <v>11.0</v>
+      </c>
+      <c r="H468" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="I468" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="J468" s="4">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="469">
-      <c r="I469" s="5"/>
+      <c r="A469" s="6">
+        <v>44568.0</v>
+      </c>
+      <c r="B469" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C469" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="D469" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G469" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="H469" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="I469" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="J469" s="4">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="470">
-      <c r="I470" s="5"/>
+      <c r="A470" s="6">
+        <v>44568.0</v>
+      </c>
+      <c r="B470" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C470" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="D470" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G470" s="4">
+        <v>15.0</v>
+      </c>
+      <c r="H470" s="4">
+        <v>9.0</v>
+      </c>
+      <c r="I470" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J470" s="4">
+        <v>6.0</v>
+      </c>
     </row>
     <row r="471">
-      <c r="I471" s="5"/>
+      <c r="A471" s="6">
+        <v>44568.0</v>
+      </c>
+      <c r="B471" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C471" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="D471" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G471" s="4">
+        <v>13.5</v>
+      </c>
+      <c r="H471" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="I471" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J471" s="4">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="472">
-      <c r="I472" s="5"/>
+      <c r="A472" s="6">
+        <v>44568.0</v>
+      </c>
+      <c r="B472" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C472" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="D472" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G472" s="4">
+        <v>16.5</v>
+      </c>
+      <c r="H472" s="4">
+        <v>9.0</v>
+      </c>
+      <c r="I472" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J472" s="4">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="473">
-      <c r="I473" s="5"/>
+      <c r="A473" s="6">
+        <v>44568.0</v>
+      </c>
+      <c r="B473" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C473" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="D473" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G473" s="4">
+        <v>13.0</v>
+      </c>
+      <c r="H473" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="I473" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J473" s="4">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="474">
-      <c r="I474" s="5"/>
+      <c r="A474" s="6">
+        <v>44568.0</v>
+      </c>
+      <c r="B474" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C474" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="D474" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F474" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I474" s="8"/>
     </row>
     <row r="475">
-      <c r="I475" s="5"/>
+      <c r="A475" s="6">
+        <v>44568.0</v>
+      </c>
+      <c r="B475" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C475" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="D475" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G475" s="4">
+        <v>7.5</v>
+      </c>
+      <c r="H475" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="I475" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="J475" s="4">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="476">
-      <c r="I476" s="5"/>
+      <c r="A476" s="6">
+        <v>44568.0</v>
+      </c>
+      <c r="B476" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C476" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="D476" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="G476" s="4">
+        <v>12.5</v>
+      </c>
+      <c r="H476" s="4">
+        <v>9.0</v>
+      </c>
+      <c r="I476" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="J476" s="4">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="477">
-      <c r="I477" s="5"/>
+      <c r="A477" s="6">
+        <v>44568.0</v>
+      </c>
+      <c r="B477" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C477" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="D477" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="G477" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="H477" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="I477" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J477" s="4">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="478">
-      <c r="I478" s="5"/>
+      <c r="A478" s="6">
+        <v>44568.0</v>
+      </c>
+      <c r="B478" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C478" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="D478" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G478" s="4">
+        <v>10.5</v>
+      </c>
+      <c r="H478" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="I478" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J478" s="4">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="479">
-      <c r="I479" s="5"/>
+      <c r="A479" s="6">
+        <v>44568.0</v>
+      </c>
+      <c r="B479" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C479" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="D479" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G479" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="H479" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="I479" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J479" s="4">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="480">
-      <c r="I480" s="5"/>
+      <c r="A480" s="6">
+        <v>44568.0</v>
+      </c>
+      <c r="B480" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C480" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="D480" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G480" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="H480" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="I480" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J480" s="4">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="481">
-      <c r="I481" s="5"/>
+      <c r="A481" s="6">
+        <v>44568.0</v>
+      </c>
+      <c r="B481" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C481" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="D481" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G481" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="H481" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="I481" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J481" s="4">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="482">
-      <c r="I482" s="5"/>
+      <c r="A482" s="6">
+        <v>44568.0</v>
+      </c>
+      <c r="B482" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C482" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="D482" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G482" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="H482" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="I482" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="J482" s="4">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="483">
-      <c r="I483" s="5"/>
+      <c r="A483" s="6">
+        <v>44568.0</v>
+      </c>
+      <c r="B483" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C483" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="D483" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G483" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="H483" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="I483" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J483" s="4">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="484">
-      <c r="I484" s="5"/>
+      <c r="A484" s="6">
+        <v>44568.0</v>
+      </c>
+      <c r="B484" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C484" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="D484" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G484" s="4">
+        <v>7.5</v>
+      </c>
+      <c r="H484" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="I484" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J484" s="4">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="485">
-      <c r="I485" s="5"/>
+      <c r="A485" s="6">
+        <v>44568.0</v>
+      </c>
+      <c r="B485" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C485" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="D485" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F485" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I485" s="8"/>
     </row>
     <row r="486">
-      <c r="I486" s="5"/>
+      <c r="A486" s="6">
+        <v>44568.0</v>
+      </c>
+      <c r="B486" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C486" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="D486" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="F486" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I486" s="8"/>
     </row>
     <row r="487">
-      <c r="I487" s="5"/>
+      <c r="A487" s="6">
+        <v>44568.0</v>
+      </c>
+      <c r="B487" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C487" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="D487" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="G487" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="H487" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="I487" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="J487" s="4">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="488">
-      <c r="I488" s="5"/>
+      <c r="A488" s="6">
+        <v>44568.0</v>
+      </c>
+      <c r="B488" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C488" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="D488" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="G488" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="H488" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="I488" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="J488" s="4">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="489">
-      <c r="I489" s="5"/>
+      <c r="A489" s="6">
+        <v>44568.0</v>
+      </c>
+      <c r="B489" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C489" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="D489" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F489" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I489" s="8"/>
     </row>
     <row r="490">
-      <c r="I490" s="5"/>
+      <c r="A490" s="6">
+        <v>44568.0</v>
+      </c>
+      <c r="B490" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C490" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="D490" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G490" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="H490" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="I490" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J490" s="4">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="491">
-      <c r="I491" s="5"/>
+      <c r="A491" s="6">
+        <v>44568.0</v>
+      </c>
+      <c r="B491" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C491" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="D491" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G491" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="H491" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="I491" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="J491" s="4">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="492">
-      <c r="I492" s="5"/>
+      <c r="A492" s="6">
+        <v>44568.0</v>
+      </c>
+      <c r="B492" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C492" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="D492" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G492" s="4">
+        <v>9.5</v>
+      </c>
+      <c r="H492" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="I492" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="J492" s="4">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="493">
-      <c r="I493" s="5"/>
+      <c r="A493" s="6">
+        <v>44568.0</v>
+      </c>
+      <c r="B493" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C493" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="D493" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G493" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="H493" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="I493" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J493" s="4">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="494">
-      <c r="I494" s="5"/>
+      <c r="A494" s="6">
+        <v>44568.0</v>
+      </c>
+      <c r="B494" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C494" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="D494" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G494" s="4">
+        <v>9.0</v>
+      </c>
+      <c r="H494" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="I494" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="J494" s="4">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="495">
-      <c r="I495" s="5"/>
+      <c r="A495" s="6">
+        <v>44568.0</v>
+      </c>
+      <c r="B495" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C495" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="D495" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G495" s="4">
+        <v>9.0</v>
+      </c>
+      <c r="H495" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="I495" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J495" s="4">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="496">
-      <c r="I496" s="5"/>
+      <c r="A496" s="6">
+        <v>44568.0</v>
+      </c>
+      <c r="B496" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C496" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="D496" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="G496" s="4">
+        <v>9.5</v>
+      </c>
+      <c r="H496" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="I496" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="J496" s="4">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="497">
-      <c r="I497" s="5"/>
+      <c r="A497" s="6">
+        <v>44568.0</v>
+      </c>
+      <c r="B497" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C497" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="D497" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G497" s="4">
+        <v>7.5</v>
+      </c>
+      <c r="H497" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="I497" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J497" s="4">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="498">
-      <c r="I498" s="5"/>
+      <c r="A498" s="6">
+        <v>44568.0</v>
+      </c>
+      <c r="B498" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C498" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="D498" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G498" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="H498" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="I498" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J498" s="4">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="499">
-      <c r="I499" s="5"/>
+      <c r="A499" s="6">
+        <v>44568.0</v>
+      </c>
+      <c r="B499" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C499" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="D499" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G499" s="4">
+        <v>9.0</v>
+      </c>
+      <c r="H499" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="I499" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J499" s="4">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="500">
-      <c r="I500" s="5"/>
+      <c r="A500" s="6">
+        <v>44568.0</v>
+      </c>
+      <c r="B500" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C500" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="D500" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G500" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="H500" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="I500" s="8">
+        <v>7.0</v>
+      </c>
+      <c r="J500" s="4">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="501">
-      <c r="I501" s="5"/>
+      <c r="A501" s="6">
+        <v>44568.0</v>
+      </c>
+      <c r="B501" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C501" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="D501" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G501" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="H501" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="I501" s="8">
+        <v>7.0</v>
+      </c>
+      <c r="J501" s="4">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="502">
-      <c r="I502" s="5"/>
+      <c r="A502" s="6">
+        <v>44568.0</v>
+      </c>
+      <c r="B502" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C502" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="D502" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G502" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="H502" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="I502" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J502" s="4">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="503">
-      <c r="I503" s="5"/>
+      <c r="A503" s="6">
+        <v>44568.0</v>
+      </c>
+      <c r="B503" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C503" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="D503" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G503" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="H503" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="I503" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J503" s="4">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="504">
-      <c r="I504" s="5"/>
+      <c r="A504" s="6">
+        <v>44568.0</v>
+      </c>
+      <c r="B504" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C504" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="D504" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G504" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="H504" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="I504" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J504" s="4">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="505">
-      <c r="I505" s="5"/>
+      <c r="A505" s="6">
+        <v>44568.0</v>
+      </c>
+      <c r="B505" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C505" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="D505" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G505" s="4">
+        <v>9.0</v>
+      </c>
+      <c r="H505" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="I505" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J505" s="4">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="506">
-      <c r="I506" s="5"/>
+      <c r="A506" s="6">
+        <v>44568.0</v>
+      </c>
+      <c r="B506" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C506" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="D506" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G506" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="H506" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="I506" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J506" s="4">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="507">
-      <c r="I507" s="5"/>
+      <c r="A507" s="6">
+        <v>44568.0</v>
+      </c>
+      <c r="B507" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C507" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="D507" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G507" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="H507" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="I507" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="J507" s="4">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="508">
-      <c r="I508" s="5"/>
+      <c r="A508" s="6">
+        <v>44568.0</v>
+      </c>
+      <c r="B508" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C508" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="D508" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G508" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="H508" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="I508" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J508" s="4">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="509">
-      <c r="I509" s="5"/>
+      <c r="A509" s="6">
+        <v>44568.0</v>
+      </c>
+      <c r="B509" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C509" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="D509" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G509" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="H509" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="I509" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J509" s="4">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="510">
-      <c r="I510" s="5"/>
+      <c r="A510" s="6">
+        <v>44568.0</v>
+      </c>
+      <c r="B510" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C510" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="D510" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G510" s="4">
+        <v>10.5</v>
+      </c>
+      <c r="H510" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="I510" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J510" s="4">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="511">
-      <c r="I511" s="5"/>
+      <c r="A511" s="6">
+        <v>44568.0</v>
+      </c>
+      <c r="B511" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C511" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="D511" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G511" s="4">
+        <v>9.5</v>
+      </c>
+      <c r="H511" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="I511" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J511" s="4">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="512">
-      <c r="I512" s="5"/>
+      <c r="A512" s="6">
+        <v>44568.0</v>
+      </c>
+      <c r="B512" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C512" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="D512" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G512" s="4">
+        <v>11.0</v>
+      </c>
+      <c r="H512" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="I512" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J512" s="4">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="513">
-      <c r="I513" s="5"/>
+      <c r="A513" s="6">
+        <v>44568.0</v>
+      </c>
+      <c r="B513" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C513" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="D513" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G513" s="4">
+        <v>14.0</v>
+      </c>
+      <c r="H513" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="I513" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J513" s="4">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="514">
-      <c r="I514" s="5"/>
+      <c r="A514" s="6">
+        <v>44568.0</v>
+      </c>
+      <c r="B514" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C514" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="D514" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G514" s="4">
+        <v>9.0</v>
+      </c>
+      <c r="H514" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="I514" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J514" s="4">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="515">
-      <c r="I515" s="5"/>
+      <c r="A515" s="6">
+        <v>44568.0</v>
+      </c>
+      <c r="B515" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C515" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="D515" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G515" s="4">
+        <v>10.5</v>
+      </c>
+      <c r="H515" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="I515" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J515" s="4">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="516">
-      <c r="I516" s="5"/>
+      <c r="A516" s="6">
+        <v>44568.0</v>
+      </c>
+      <c r="B516" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C516" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="D516" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G516" s="4">
+        <v>8.5</v>
+      </c>
+      <c r="H516" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="I516" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="J516" s="4">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="517">
-      <c r="I517" s="5"/>
+      <c r="A517" s="6">
+        <v>44568.0</v>
+      </c>
+      <c r="B517" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C517" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="D517" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G517" s="4">
+        <v>13.5</v>
+      </c>
+      <c r="H517" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="I517" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J517" s="4">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="518">
-      <c r="I518" s="5"/>
+      <c r="A518" s="6">
+        <v>44568.0</v>
+      </c>
+      <c r="B518" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C518" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="D518" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G518" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="H518" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="I518" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J518" s="4">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="519">
-      <c r="I519" s="5"/>
+      <c r="A519" s="6">
+        <v>44568.0</v>
+      </c>
+      <c r="B519" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C519" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="D519" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G519" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="H519" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="I519" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J519" s="4">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="520">
-      <c r="I520" s="5"/>
+      <c r="A520" s="6">
+        <v>44568.0</v>
+      </c>
+      <c r="B520" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C520" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="D520" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G520" s="4">
+        <v>12.0</v>
+      </c>
+      <c r="H520" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="I520" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J520" s="4">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="521">
-      <c r="I521" s="5"/>
+      <c r="A521" s="6">
+        <v>44568.0</v>
+      </c>
+      <c r="B521" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C521" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="D521" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G521" s="4">
+        <v>7.5</v>
+      </c>
+      <c r="H521" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="I521" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J521" s="4">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="522">
-      <c r="I522" s="5"/>
+      <c r="A522" s="6">
+        <v>44568.0</v>
+      </c>
+      <c r="B522" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C522" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="D522" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G522" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="H522" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="I522" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J522" s="4">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="523">
-      <c r="I523" s="5"/>
+      <c r="A523" s="6">
+        <v>44568.0</v>
+      </c>
+      <c r="B523" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C523" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="D523" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G523" s="4">
+        <v>9.5</v>
+      </c>
+      <c r="H523" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="I523" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J523" s="4">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="524">
-      <c r="I524" s="5"/>
+      <c r="A524" s="6">
+        <v>44568.0</v>
+      </c>
+      <c r="B524" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C524" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="D524" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G524" s="4">
+        <v>11.0</v>
+      </c>
+      <c r="H524" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="I524" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J524" s="4">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="525">
-      <c r="I525" s="5"/>
+      <c r="A525" s="6">
+        <v>44568.0</v>
+      </c>
+      <c r="B525" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C525" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="D525" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G525" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="H525" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="I525" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="J525" s="4">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="526">
-      <c r="I526" s="5"/>
+      <c r="A526" s="6">
+        <v>44568.0</v>
+      </c>
+      <c r="B526" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C526" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="D526" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G526" s="4">
+        <v>7.5</v>
+      </c>
+      <c r="H526" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="I526" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J526" s="4">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="527">
-      <c r="I527" s="5"/>
+      <c r="A527" s="6">
+        <v>44568.0</v>
+      </c>
+      <c r="B527" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C527" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="D527" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G527" s="4">
+        <v>10.5</v>
+      </c>
+      <c r="H527" s="4">
+        <v>9.0</v>
+      </c>
+      <c r="I527" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="J527" s="4">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="528">
-      <c r="I528" s="5"/>
+      <c r="A528" s="6">
+        <v>44568.0</v>
+      </c>
+      <c r="B528" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C528" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="D528" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G528" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="H528" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="I528" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J528" s="4">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="529">
-      <c r="I529" s="5"/>
+      <c r="A529" s="6">
+        <v>44568.0</v>
+      </c>
+      <c r="B529" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C529" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="D529" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="G529" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="H529" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="I529" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J529" s="4">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="530">
-      <c r="I530" s="5"/>
+      <c r="A530" s="6">
+        <v>44568.0</v>
+      </c>
+      <c r="B530" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C530" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="D530" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G530" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="H530" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="I530" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J530" s="4">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="531">
-      <c r="I531" s="5"/>
+      <c r="A531" s="6">
+        <v>44568.0</v>
+      </c>
+      <c r="B531" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C531" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="D531" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G531" s="4">
+        <v>9.0</v>
+      </c>
+      <c r="H531" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="I531" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J531" s="4">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="532">
-      <c r="I532" s="5"/>
+      <c r="A532" s="6">
+        <v>44568.0</v>
+      </c>
+      <c r="B532" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C532" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="D532" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G532" s="4">
+        <v>10.5</v>
+      </c>
+      <c r="H532" s="4">
+        <v>7.5</v>
+      </c>
+      <c r="I532" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J532" s="4">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="533">
-      <c r="I533" s="5"/>
+      <c r="A533" s="6">
+        <v>44568.0</v>
+      </c>
+      <c r="B533" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C533" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="D533" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="G533" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="H533" s="4">
+        <v>7.5</v>
+      </c>
+      <c r="I533" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J533" s="4">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="534">
-      <c r="I534" s="5"/>
+      <c r="A534" s="6">
+        <v>44568.0</v>
+      </c>
+      <c r="B534" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C534" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="D534" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G534" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="H534" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="I534" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J534" s="4">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="535">
-      <c r="I535" s="5"/>
+      <c r="A535" s="6">
+        <v>44568.0</v>
+      </c>
+      <c r="B535" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C535" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="D535" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G535" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="H535" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="I535" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J535" s="4">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="536">
-      <c r="I536" s="5"/>
+      <c r="A536" s="6">
+        <v>44568.0</v>
+      </c>
+      <c r="B536" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C536" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="D536" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="G536" s="4">
+        <v>7.5</v>
+      </c>
+      <c r="H536" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="I536" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J536" s="4">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="537">
-      <c r="I537" s="5"/>
+      <c r="A537" s="6">
+        <v>44568.0</v>
+      </c>
+      <c r="B537" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C537" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="D537" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="G537" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="H537" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="I537" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="J537" s="4">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="538">
-      <c r="I538" s="5"/>
+      <c r="A538" s="6">
+        <v>44568.0</v>
+      </c>
+      <c r="B538" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C538" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="D538" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G538" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="H538" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="I538" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J538" s="4">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="539">
-      <c r="I539" s="5"/>
+      <c r="A539" s="6">
+        <v>44568.0</v>
+      </c>
+      <c r="B539" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C539" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="D539" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="G539" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="H539" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="I539" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="J539" s="4">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="540">
-      <c r="I540" s="5"/>
+      <c r="A540" s="6">
+        <v>44568.0</v>
+      </c>
+      <c r="B540" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C540" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="D540" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G540" s="4">
+        <v>9.0</v>
+      </c>
+      <c r="H540" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="I540" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J540" s="4">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="541">
-      <c r="I541" s="5"/>
+      <c r="A541" s="6">
+        <v>44568.0</v>
+      </c>
+      <c r="B541" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C541" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="D541" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="G541" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="H541" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="I541" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="J541" s="4">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="542">
-      <c r="I542" s="5"/>
+      <c r="A542" s="6">
+        <v>44568.0</v>
+      </c>
+      <c r="B542" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C542" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="D542" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G542" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="H542" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="I542" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J542" s="4">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="543">
-      <c r="I543" s="5"/>
+      <c r="A543" s="6">
+        <v>44568.0</v>
+      </c>
+      <c r="B543" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C543" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="D543" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G543" s="4">
+        <v>11.0</v>
+      </c>
+      <c r="H543" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="I543" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J543" s="4">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="544">
-      <c r="I544" s="5"/>
+      <c r="A544" s="6">
+        <v>44568.0</v>
+      </c>
+      <c r="B544" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C544" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="D544" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G544" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="H544" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="I544" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J544" s="4">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="545">
-      <c r="I545" s="5"/>
+      <c r="A545" s="6">
+        <v>44568.0</v>
+      </c>
+      <c r="B545" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C545" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="D545" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G545" s="4">
+        <v>9.0</v>
+      </c>
+      <c r="H545" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="I545" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J545" s="4">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="546">
-      <c r="I546" s="5"/>
+      <c r="A546" s="6">
+        <v>44568.0</v>
+      </c>
+      <c r="B546" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C546" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="D546" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G546" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="H546" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="I546" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J546" s="4">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="547">
-      <c r="I547" s="5"/>
+      <c r="A547" s="6">
+        <v>44568.0</v>
+      </c>
+      <c r="B547" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C547" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="D547" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G547" s="4">
+        <v>8.5</v>
+      </c>
+      <c r="H547" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="I547" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J547" s="4">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="548">
-      <c r="I548" s="5"/>
+      <c r="A548" s="6">
+        <v>44568.0</v>
+      </c>
+      <c r="B548" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C548" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="D548" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G548" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="H548" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="I548" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="J548" s="4">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="549">
-      <c r="I549" s="5"/>
+      <c r="A549" s="6">
+        <v>44568.0</v>
+      </c>
+      <c r="B549" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C549" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="D549" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G549" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="H549" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="I549" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J549" s="4">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="550">
-      <c r="I550" s="5"/>
+      <c r="A550" s="6">
+        <v>44568.0</v>
+      </c>
+      <c r="B550" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C550" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="D550" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G550" s="4">
+        <v>9.5</v>
+      </c>
+      <c r="H550" s="4">
+        <v>7.5</v>
+      </c>
+      <c r="I550" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J550" s="4">
+        <v>6.0</v>
+      </c>
     </row>
     <row r="551">
-      <c r="I551" s="5"/>
+      <c r="A551" s="6">
+        <v>44568.0</v>
+      </c>
+      <c r="B551" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C551" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="D551" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G551" s="4">
+        <v>11.0</v>
+      </c>
+      <c r="H551" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="I551" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J551" s="4">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="552">
-      <c r="I552" s="5"/>
+      <c r="A552" s="6">
+        <v>44568.0</v>
+      </c>
+      <c r="B552" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C552" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="D552" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G552" s="4">
+        <v>11.0</v>
+      </c>
+      <c r="H552" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="I552" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J552" s="4">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="553">
-      <c r="I553" s="5"/>
+      <c r="A553" s="6">
+        <v>44568.0</v>
+      </c>
+      <c r="B553" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C553" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="D553" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G553" s="4">
+        <v>14.0</v>
+      </c>
+      <c r="H553" s="4">
+        <v>9.0</v>
+      </c>
+      <c r="I553" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J553" s="4">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="554">
       <c r="I554" s="5"/>
@@ -18691,6 +20780,1526 @@
         <v>9.0</v>
       </c>
     </row>
+    <row r="142">
+      <c r="A142" s="6">
+        <v>44568.0</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C142" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="D142" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G142" s="4">
+        <v>14.0</v>
+      </c>
+      <c r="H142" s="4">
+        <v>14.2</v>
+      </c>
+      <c r="I142" s="4">
+        <v>1.6</v>
+      </c>
+      <c r="J142" s="4">
+        <v>1.6</v>
+      </c>
+      <c r="K142" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="L142" s="4">
+        <v>4.8</v>
+      </c>
+      <c r="M142" s="4">
+        <v>3.2</v>
+      </c>
+      <c r="N142" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="O142" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="P142" s="4">
+        <v>1.9</v>
+      </c>
+      <c r="Q142" s="4">
+        <v>2.4</v>
+      </c>
+      <c r="R142" s="4">
+        <v>3.2</v>
+      </c>
+      <c r="S142" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="T142" s="4">
+        <v>3.9</v>
+      </c>
+      <c r="U142" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="V142" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="W142" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="X142" s="4">
+        <v>3.6</v>
+      </c>
+      <c r="Y142" s="4">
+        <v>1.7</v>
+      </c>
+      <c r="Z142" s="4">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="6">
+        <v>44568.0</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C143" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="D143" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G143" s="4">
+        <v>16.0</v>
+      </c>
+      <c r="H143" s="4">
+        <v>3.8</v>
+      </c>
+      <c r="I143" s="4">
+        <v>2.2</v>
+      </c>
+      <c r="J143" s="4">
+        <v>2.1</v>
+      </c>
+      <c r="K143" s="4">
+        <v>1.6</v>
+      </c>
+      <c r="L143" s="4">
+        <v>1.6</v>
+      </c>
+      <c r="M143" s="4">
+        <v>4.3</v>
+      </c>
+      <c r="N143" s="4">
+        <v>4.3</v>
+      </c>
+      <c r="O143" s="4">
+        <v>3.2</v>
+      </c>
+      <c r="P143" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="Q143" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="R143" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="S143" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="T143" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="U143" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="V143" s="4">
+        <v>3.6</v>
+      </c>
+      <c r="W143" s="4">
+        <v>1.9</v>
+      </c>
+      <c r="X143" s="4">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="6">
+        <v>44568.0</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C144" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="D144" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G144" s="4">
+        <v>18.2</v>
+      </c>
+      <c r="H144" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="I144" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="J144" s="4">
+        <v>2.2</v>
+      </c>
+      <c r="K144" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="L144" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="M144" s="4">
+        <v>3.7</v>
+      </c>
+      <c r="N144" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="O144" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="P144" s="4">
+        <v>1.9</v>
+      </c>
+      <c r="Q144" s="4">
+        <v>6.2</v>
+      </c>
+      <c r="R144" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="S144" s="4">
+        <v>4.2</v>
+      </c>
+      <c r="T144" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="U144" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="V144" s="4">
+        <v>5.4</v>
+      </c>
+      <c r="W144" s="4">
+        <v>3.6</v>
+      </c>
+      <c r="X144" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="Y144" s="4">
+        <v>4.7</v>
+      </c>
+      <c r="Z144" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="AA144" s="4">
+        <v>9.7</v>
+      </c>
+      <c r="AB144" s="4">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="6">
+        <v>44568.0</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C145" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="D145" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G145" s="4">
+        <v>17.9</v>
+      </c>
+      <c r="H145" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="I145" s="4">
+        <v>3.7</v>
+      </c>
+      <c r="J145" s="4">
+        <v>3.2</v>
+      </c>
+      <c r="K145" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="L145" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="M145" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="N145" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="O145" s="4">
+        <v>3.2</v>
+      </c>
+      <c r="P145" s="4">
+        <v>3.7</v>
+      </c>
+      <c r="Q145" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="R145" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="S145" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="T145" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="U145" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="V145" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="W145" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="X145" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="Y145" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="Z145" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="AA145" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="AB145" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="AC145" s="4">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="6">
+        <v>44568.0</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C146" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="D146" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G146" s="4">
+        <v>9.2</v>
+      </c>
+      <c r="H146" s="4">
+        <v>4.4</v>
+      </c>
+      <c r="I146" s="4">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="6">
+        <v>44568.0</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C147" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="D147" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G147" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="H147" s="4">
+        <v>6.4</v>
+      </c>
+      <c r="I147" s="4">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="6">
+        <v>44568.0</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C148" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="D148" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G148" s="4">
+        <v>12.5</v>
+      </c>
+      <c r="H148" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="I148" s="4">
+        <v>4.4</v>
+      </c>
+      <c r="J148" s="4">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="6">
+        <v>44568.0</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C149" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="D149" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="G149" s="4">
+        <v>7.9</v>
+      </c>
+      <c r="H149" s="4">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="6">
+        <v>44568.0</v>
+      </c>
+      <c r="B150" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C150" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="D150" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G150" s="4">
+        <v>12.0</v>
+      </c>
+      <c r="H150" s="4">
+        <v>4.4</v>
+      </c>
+      <c r="I150" s="4">
+        <v>4.9</v>
+      </c>
+      <c r="J150" s="4">
+        <v>2.6</v>
+      </c>
+      <c r="K150" s="4">
+        <v>3.1</v>
+      </c>
+      <c r="L150" s="4">
+        <v>1.1</v>
+      </c>
+      <c r="M150" s="4">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="6">
+        <v>44568.0</v>
+      </c>
+      <c r="B151" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C151" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="D151" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G151" s="4">
+        <v>14.1</v>
+      </c>
+      <c r="H151" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="I151" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="J151" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="K151" s="4">
+        <v>2.1</v>
+      </c>
+      <c r="L151" s="4">
+        <v>2.1</v>
+      </c>
+      <c r="M151" s="4">
+        <v>2.3</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="6">
+        <v>44568.0</v>
+      </c>
+      <c r="B152" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C152" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="D152" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G152" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="H152" s="4">
+        <v>2.9</v>
+      </c>
+      <c r="I152" s="4">
+        <v>1.9</v>
+      </c>
+      <c r="J152" s="4">
+        <v>3.8</v>
+      </c>
+      <c r="K152" s="4">
+        <v>2.2</v>
+      </c>
+      <c r="L152" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="M152" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="N152" s="4">
+        <v>5.1</v>
+      </c>
+      <c r="O152" s="4">
+        <v>2.3</v>
+      </c>
+      <c r="P152" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="Q152" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="R152" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="S152" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="T152" s="4">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="6">
+        <v>44568.0</v>
+      </c>
+      <c r="B153" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C153" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="D153" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G153" s="4">
+        <v>14.9</v>
+      </c>
+      <c r="H153" s="4">
+        <v>4.9</v>
+      </c>
+      <c r="I153" s="4">
+        <v>3.3</v>
+      </c>
+      <c r="J153" s="4">
+        <v>2.1</v>
+      </c>
+      <c r="K153" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="L153" s="4">
+        <v>3.3</v>
+      </c>
+      <c r="M153" s="4">
+        <v>4.2</v>
+      </c>
+      <c r="N153" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="O153" s="4">
+        <v>3.7</v>
+      </c>
+      <c r="P153" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="Q153" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="R153" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="S153" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="T153" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="U153" s="4">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="6">
+        <v>44568.0</v>
+      </c>
+      <c r="B154" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C154" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="D154" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G154" s="4">
+        <v>13.0</v>
+      </c>
+      <c r="H154" s="4">
+        <v>3.2</v>
+      </c>
+      <c r="I154" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="J154" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="K154" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="L154" s="4">
+        <v>2.6</v>
+      </c>
+      <c r="M154" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="N154" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="O154" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="P154" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="Q154" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="R154" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="S154" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="T154" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="U154" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="V154" s="4">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="6">
+        <v>44568.0</v>
+      </c>
+      <c r="B155" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C155" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="D155" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G155" s="4">
+        <v>12.9</v>
+      </c>
+      <c r="H155" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="I155" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="J155" s="4">
+        <v>4.7</v>
+      </c>
+      <c r="K155" s="4">
+        <v>4.7</v>
+      </c>
+      <c r="L155" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="M155" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="N155" s="4">
+        <v>3.6</v>
+      </c>
+      <c r="O155" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="P155" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="Q155" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="R155" s="4">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="6">
+        <v>44568.0</v>
+      </c>
+      <c r="B156" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C156" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="D156" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G156" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="H156" s="4">
+        <v>8.2</v>
+      </c>
+      <c r="I156" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="J156" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="K156" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="L156" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="M156" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="N156" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="O156" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="P156" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="Q156" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="R156" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="S156" s="4">
+        <v>4.2</v>
+      </c>
+      <c r="T156" s="4">
+        <v>1.7</v>
+      </c>
+      <c r="U156" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="V156" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="W156" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="X156" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="Y156" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="Z156" s="4">
+        <v>21.0</v>
+      </c>
+      <c r="AA156" s="4">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="6">
+        <v>44568.0</v>
+      </c>
+      <c r="B157" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C157" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="D157" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G157" s="4">
+        <v>15.0</v>
+      </c>
+      <c r="H157" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="I157" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="J157" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="K157" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="L157" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="M157" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="N157" s="4">
+        <v>15.0</v>
+      </c>
+      <c r="O157" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="P157" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="Q157" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="R157" s="4">
+        <v>15.6</v>
+      </c>
+      <c r="S157" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="T157" s="4">
+        <v>12.0</v>
+      </c>
+      <c r="U157" s="4">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="6">
+        <v>44568.0</v>
+      </c>
+      <c r="B158" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C158" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="D158" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G158" s="4">
+        <v>16.0</v>
+      </c>
+      <c r="H158" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="I158" s="4">
+        <v>12.0</v>
+      </c>
+      <c r="J158" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="K158" s="4">
+        <v>5.3</v>
+      </c>
+      <c r="L158" s="4">
+        <v>5.3</v>
+      </c>
+      <c r="M158" s="4">
+        <v>4.2</v>
+      </c>
+      <c r="N158" s="4">
+        <v>4.2</v>
+      </c>
+      <c r="O158" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="P158" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="Q158" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="R158" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="S158" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="T158" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="U158" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="V158" s="4">
+        <v>12.0</v>
+      </c>
+      <c r="W158" s="4">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="6">
+        <v>44568.0</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C159" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="D159" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G159" s="4">
+        <v>9.0</v>
+      </c>
+      <c r="H159" s="4">
+        <v>4.9</v>
+      </c>
+      <c r="I159" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="J159" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="K159" s="4">
+        <v>16.0</v>
+      </c>
+      <c r="L159" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="M159" s="4">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="6">
+        <v>44568.0</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C160" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="D160" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G160" s="4">
+        <v>13.5</v>
+      </c>
+      <c r="H160" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="I160" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="J160" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="K160" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="L160" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="M160" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="N160" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="O160" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="P160" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="Q160" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="R160" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="S160" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="T160" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="U160" s="4">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="6">
+        <v>44568.0</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C161" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="D161" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G161" s="4">
+        <v>17.5</v>
+      </c>
+      <c r="H161" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="I161" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="J161" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="K161" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="L161" s="4">
+        <v>4.9</v>
+      </c>
+      <c r="M161" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="N161" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="O161" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="P161" s="4">
+        <v>12.0</v>
+      </c>
+      <c r="Q161" s="4">
+        <v>55.0</v>
+      </c>
+      <c r="R161" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="S161" s="4">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="6">
+        <v>44568.0</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C162" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="D162" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G162" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="H162" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="I162" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="J162" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="K162" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="L162" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="M162" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="N162" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="O162" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="P162" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="Q162" s="4">
+        <v>18.0</v>
+      </c>
+      <c r="R162" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="S162" s="4">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="6">
+        <v>44568.0</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C163" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="D163" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G163" s="4">
+        <v>18.2</v>
+      </c>
+      <c r="H163" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="I163" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="J163" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="K163" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="L163" s="4">
+        <v>2.9</v>
+      </c>
+      <c r="M163" s="4">
+        <v>2.9</v>
+      </c>
+      <c r="N163" s="4">
+        <v>2.9</v>
+      </c>
+      <c r="O163" s="4">
+        <v>2.9</v>
+      </c>
+      <c r="P163" s="4">
+        <v>2.6</v>
+      </c>
+      <c r="Q163" s="4">
+        <v>3.3</v>
+      </c>
+      <c r="R163" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="S163" s="4">
+        <v>1.8</v>
+      </c>
+      <c r="T163" s="4">
+        <v>7.2</v>
+      </c>
+      <c r="U163" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="V163" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="W163" s="4">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="6">
+        <v>44568.0</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C164" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="D164" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G164" s="4">
+        <v>16.0</v>
+      </c>
+      <c r="H164" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="I164" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="J164" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="K164" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="L164" s="4">
+        <v>1.8</v>
+      </c>
+      <c r="M164" s="4">
+        <v>8.5</v>
+      </c>
+      <c r="N164" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="O164" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="P164" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="Q164" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="R164" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="S164" s="4">
+        <v>3.8</v>
+      </c>
+      <c r="T164" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="U164" s="4">
+        <v>6.7</v>
+      </c>
+      <c r="V164" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="W164" s="4">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="6">
+        <v>44568.0</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C165" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="D165" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G165" s="4">
+        <v>9.0</v>
+      </c>
+      <c r="H165" s="4">
+        <v>2.2</v>
+      </c>
+      <c r="I165" s="4">
+        <v>2.2</v>
+      </c>
+      <c r="J165" s="4">
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="6">
+        <v>44568.0</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C166" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="D166" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G166" s="4">
+        <v>17.2</v>
+      </c>
+      <c r="H166" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="I166" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="J166" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="K166" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="L166" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="M166" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="N166" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="O166" s="4">
+        <v>3.8</v>
+      </c>
+      <c r="P166" s="4">
+        <v>2.8</v>
+      </c>
+      <c r="Q166" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="R166" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="S166" s="4">
+        <v>15.0</v>
+      </c>
+      <c r="T166" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="U166" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="V166" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="W166" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="X166" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="Y166" s="4">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="6">
+        <v>44568.0</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C167" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="D167" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G167" s="4">
+        <v>15.0</v>
+      </c>
+      <c r="H167" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="I167" s="4">
+        <v>2.1</v>
+      </c>
+      <c r="J167" s="4">
+        <v>12.0</v>
+      </c>
+      <c r="K167" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="L167" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="M167" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="N167" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="O167" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="P167" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="Q167" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="R167" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="S167" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="T167" s="4">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="6">
+        <v>44568.0</v>
+      </c>
+      <c r="B168" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C168" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="D168" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G168" s="4">
+        <v>12.6</v>
+      </c>
+      <c r="H168" s="4">
+        <v>5.2</v>
+      </c>
+      <c r="I168" s="4">
+        <v>1.9</v>
+      </c>
+      <c r="J168" s="4">
+        <v>3.8</v>
+      </c>
+      <c r="K168" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="L168" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="M168" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="N168" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="O168" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="P168" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="Q168" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="R168" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="S168" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="T168" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="U168" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="V168" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="W168" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="X168" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="Y168" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="Z168" s="4">
+        <v>9.0</v>
+      </c>
+      <c r="AA168" s="4">
+        <v>12.0</v>
+      </c>
+      <c r="AB168" s="4">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="6">
+        <v>44568.0</v>
+      </c>
+      <c r="B169" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C169" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="D169" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G169" s="4">
+        <v>12.6</v>
+      </c>
+      <c r="H169" s="4">
+        <v>13.5</v>
+      </c>
+      <c r="I169" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="J169" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="K169" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="L169" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="M169" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="N169" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="O169" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="P169" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="Q169" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="R169" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="S169" s="4">
+        <v>12.0</v>
+      </c>
+      <c r="T169" s="4">
+        <v>20.0</v>
+      </c>
+      <c r="U169" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="V169" s="4">
+        <v>1.0</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations>
     <dataValidation type="list" allowBlank="1" sqref="E2:E57">
@@ -26254,6 +29863,1248 @@
         <v>1.5</v>
       </c>
     </row>
+    <row r="182">
+      <c r="A182" s="6">
+        <v>44568.0</v>
+      </c>
+      <c r="B182" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C182" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="D182" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G182" s="4">
+        <v>17.8</v>
+      </c>
+      <c r="H182" s="4">
+        <v>5.8</v>
+      </c>
+      <c r="I182" s="4">
+        <v>1.9</v>
+      </c>
+      <c r="J182" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="K182" s="4">
+        <v>1.6</v>
+      </c>
+      <c r="L182" s="4">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="6">
+        <v>44568.0</v>
+      </c>
+      <c r="B183" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C183" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="D183" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G183" s="4">
+        <v>19.8</v>
+      </c>
+      <c r="H183" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="I183" s="4">
+        <v>1.9</v>
+      </c>
+      <c r="J183" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="K183" s="4">
+        <v>11.2</v>
+      </c>
+      <c r="L183" s="4">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="6">
+        <v>44568.0</v>
+      </c>
+      <c r="B184" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C184" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="D184" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G184" s="4">
+        <v>18.6</v>
+      </c>
+      <c r="H184" s="4">
+        <v>5.2</v>
+      </c>
+      <c r="I184" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="J184" s="4">
+        <v>1.8</v>
+      </c>
+      <c r="K184" s="4">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="6">
+        <v>44568.0</v>
+      </c>
+      <c r="B185" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C185" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="D185" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="G185" s="4">
+        <v>13.8</v>
+      </c>
+      <c r="H185" s="4">
+        <v>5.6</v>
+      </c>
+      <c r="I185" s="4">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="6">
+        <v>44568.0</v>
+      </c>
+      <c r="B186" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C186" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="D186" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G186" s="4">
+        <v>23.2</v>
+      </c>
+      <c r="H186" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="I186" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="J186" s="4">
+        <v>5.4</v>
+      </c>
+      <c r="K186" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="L186" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="M186" s="4">
+        <v>6.9</v>
+      </c>
+      <c r="N186" s="4">
+        <v>56.0</v>
+      </c>
+      <c r="O186" s="4">
+        <v>3.9</v>
+      </c>
+      <c r="P186" s="4">
+        <v>2.4</v>
+      </c>
+      <c r="Q186" s="4">
+        <v>3.8</v>
+      </c>
+      <c r="R186" s="4">
+        <v>2.2</v>
+      </c>
+      <c r="S186" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="T186" s="4">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="6">
+        <v>44568.0</v>
+      </c>
+      <c r="B187" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C187" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="D187" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G187" s="4">
+        <v>11.0</v>
+      </c>
+      <c r="H187" s="4">
+        <v>7.9</v>
+      </c>
+      <c r="I187" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="J187" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="K187" s="4">
+        <v>3.3</v>
+      </c>
+      <c r="L187" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="M187" s="4">
+        <v>3.9</v>
+      </c>
+      <c r="N187" s="4">
+        <v>2.9</v>
+      </c>
+      <c r="O187" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="P187" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="Q187" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="R187" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="S187" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="T187" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="U187" s="4">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="6">
+        <v>44568.0</v>
+      </c>
+      <c r="B188" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C188" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="D188" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G188" s="4">
+        <v>17.1</v>
+      </c>
+      <c r="H188" s="4">
+        <v>3.9</v>
+      </c>
+      <c r="I188" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="J188" s="4">
+        <v>6.9</v>
+      </c>
+      <c r="K188" s="4">
+        <v>3.8</v>
+      </c>
+      <c r="L188" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="M188" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="N188" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="O188" s="4">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="6">
+        <v>44568.0</v>
+      </c>
+      <c r="B189" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C189" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="D189" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G189" s="4">
+        <v>14.5</v>
+      </c>
+      <c r="H189" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="I189" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="J189" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="K189" s="4">
+        <v>4.8</v>
+      </c>
+      <c r="L189" s="4">
+        <v>3.7</v>
+      </c>
+      <c r="M189" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="N189" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="O189" s="4">
+        <v>8.1</v>
+      </c>
+      <c r="P189" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="Q189" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="R189" s="4">
+        <v>9.5</v>
+      </c>
+      <c r="S189" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="T189" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="U189" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="V189" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="W189" s="4">
+        <v>7.2</v>
+      </c>
+      <c r="X189" s="4">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="6">
+        <v>44568.0</v>
+      </c>
+      <c r="B190" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C190" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="D190" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G190" s="4">
+        <v>16.5</v>
+      </c>
+      <c r="H190" s="4">
+        <v>10.7</v>
+      </c>
+      <c r="I190" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="J190" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="K190" s="4">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="6">
+        <v>44568.0</v>
+      </c>
+      <c r="B191" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C191" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="D191" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G191" s="4">
+        <v>17.0</v>
+      </c>
+      <c r="H191" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="I191" s="4">
+        <v>1.7</v>
+      </c>
+      <c r="J191" s="4">
+        <v>8.2</v>
+      </c>
+      <c r="K191" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="L191" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="M191" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="N191" s="4">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="6">
+        <v>44568.0</v>
+      </c>
+      <c r="B192" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C192" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="D192" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G192" s="4">
+        <v>14.0</v>
+      </c>
+      <c r="H192" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="I192" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="J192" s="4">
+        <v>8.1</v>
+      </c>
+      <c r="K192" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="L192" s="4">
+        <v>10.5</v>
+      </c>
+      <c r="M192" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="N192" s="4">
+        <v>8.5</v>
+      </c>
+      <c r="O192" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="P192" s="4">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="6">
+        <v>44568.0</v>
+      </c>
+      <c r="B193" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C193" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="D193" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G193" s="4">
+        <v>11.8</v>
+      </c>
+      <c r="H193" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="I193" s="4">
+        <v>4.2</v>
+      </c>
+      <c r="J193" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="K193" s="4">
+        <v>10.1</v>
+      </c>
+      <c r="L193" s="4">
+        <v>5.4</v>
+      </c>
+      <c r="M193" s="4">
+        <v>6.2</v>
+      </c>
+      <c r="N193" s="4">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="6">
+        <v>44568.0</v>
+      </c>
+      <c r="B194" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C194" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="D194" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="G194" s="4">
+        <v>14.8</v>
+      </c>
+      <c r="H194" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="I194" s="4">
+        <v>4.2</v>
+      </c>
+      <c r="J194" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="K194" s="4">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="6">
+        <v>44568.0</v>
+      </c>
+      <c r="B195" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C195" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="D195" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G195" s="4">
+        <v>15.7</v>
+      </c>
+      <c r="H195" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="I195" s="4">
+        <v>5.7</v>
+      </c>
+      <c r="J195" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="K195" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="L195" s="4">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="6">
+        <v>44568.0</v>
+      </c>
+      <c r="B196" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C196" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="D196" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="G196" s="4">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="6">
+        <v>44568.0</v>
+      </c>
+      <c r="B197" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C197" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="D197" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G197" s="4">
+        <v>17.1</v>
+      </c>
+      <c r="H197" s="4">
+        <v>9.0</v>
+      </c>
+      <c r="I197" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="J197" s="4">
+        <v>4.4</v>
+      </c>
+      <c r="K197" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="L197" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="M197" s="4">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="6">
+        <v>44568.0</v>
+      </c>
+      <c r="B198" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C198" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="D198" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G198" s="4">
+        <v>18.3</v>
+      </c>
+      <c r="H198" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="I198" s="4">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="6">
+        <v>44568.0</v>
+      </c>
+      <c r="B199" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C199" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="D199" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G199" s="4">
+        <v>18.6</v>
+      </c>
+      <c r="H199" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="I199" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="J199" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="K199" s="4">
+        <v>1.9</v>
+      </c>
+      <c r="L199" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="M199" s="4">
+        <v>4.2</v>
+      </c>
+      <c r="N199" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="O199" s="4">
+        <v>3.4</v>
+      </c>
+      <c r="P199" s="4">
+        <v>6.9</v>
+      </c>
+      <c r="Q199" s="4">
+        <v>2.1</v>
+      </c>
+      <c r="R199" s="4">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="6">
+        <v>44568.0</v>
+      </c>
+      <c r="B200" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C200" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="D200" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G200" s="4">
+        <v>20.5</v>
+      </c>
+      <c r="H200" s="4">
+        <v>4.2</v>
+      </c>
+      <c r="I200" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="J200" s="4">
+        <v>4.7</v>
+      </c>
+      <c r="K200" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="L200" s="4">
+        <v>3.2</v>
+      </c>
+      <c r="M200" s="4">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="6">
+        <v>44568.0</v>
+      </c>
+      <c r="B201" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C201" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="D201" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G201" s="4">
+        <v>18.2</v>
+      </c>
+      <c r="H201" s="4">
+        <v>4.3</v>
+      </c>
+      <c r="I201" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="J201" s="4">
+        <v>2.6</v>
+      </c>
+      <c r="K201" s="4">
+        <v>4.6</v>
+      </c>
+      <c r="L201" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="M201" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="N201" s="4">
+        <v>1.6</v>
+      </c>
+      <c r="O201" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="P201" s="4">
+        <v>3.8</v>
+      </c>
+      <c r="Q201" s="4">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="6">
+        <v>44568.0</v>
+      </c>
+      <c r="B202" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C202" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="D202" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G202" s="4">
+        <v>7.8</v>
+      </c>
+      <c r="H202" s="4">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="6">
+        <v>44568.0</v>
+      </c>
+      <c r="B203" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C203" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="D203" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G203" s="4">
+        <v>13.8</v>
+      </c>
+      <c r="H203" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="I203" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="J203" s="4">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="6">
+        <v>44568.0</v>
+      </c>
+      <c r="B204" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C204" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="D204" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G204" s="4">
+        <v>10.8</v>
+      </c>
+      <c r="H204" s="4">
+        <v>4.6</v>
+      </c>
+      <c r="I204" s="4">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="6">
+        <v>44568.0</v>
+      </c>
+      <c r="B205" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C205" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="D205" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G205" s="4">
+        <v>10.5</v>
+      </c>
+      <c r="H205" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="I205" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="J205" s="4">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="6">
+        <v>44568.0</v>
+      </c>
+      <c r="B206" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C206" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="D206" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G206" s="4">
+        <v>20.4</v>
+      </c>
+      <c r="H206" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="I206" s="4">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="6">
+        <v>44568.0</v>
+      </c>
+      <c r="B207" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C207" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="D207" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G207" s="4">
+        <v>16.5</v>
+      </c>
+      <c r="H207" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="I207" s="4">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="6">
+        <v>44568.0</v>
+      </c>
+      <c r="B208" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C208" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="D208" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G208" s="4">
+        <v>21.0</v>
+      </c>
+      <c r="H208" s="4">
+        <v>6.2</v>
+      </c>
+      <c r="I208" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="J208" s="4">
+        <v>2.9</v>
+      </c>
+      <c r="K208" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="L208" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="M208" s="4">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="6">
+        <v>44568.0</v>
+      </c>
+      <c r="B209" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C209" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="D209" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G209" s="4">
+        <v>19.2</v>
+      </c>
+      <c r="H209" s="4">
+        <v>11.0</v>
+      </c>
+      <c r="I209" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="J209" s="4">
+        <v>2.9</v>
+      </c>
+      <c r="K209" s="4">
+        <v>1.9</v>
+      </c>
+      <c r="L209" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="M209" s="4">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="6">
+        <v>44568.0</v>
+      </c>
+      <c r="B210" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C210" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="D210" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G210" s="4">
+        <v>20.8</v>
+      </c>
+      <c r="H210" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="I210" s="4">
+        <v>1.9</v>
+      </c>
+      <c r="J210" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="K210" s="4">
+        <v>6.7</v>
+      </c>
+      <c r="L210" s="4">
+        <v>5.3</v>
+      </c>
+      <c r="M210" s="4">
+        <v>8.7</v>
+      </c>
+      <c r="N210" s="4">
+        <v>7.4</v>
+      </c>
+      <c r="O210" s="4">
+        <v>7.5</v>
+      </c>
+      <c r="P210" s="4">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="6">
+        <v>44568.0</v>
+      </c>
+      <c r="B211" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C211" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="D211" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G211" s="4">
+        <v>15.4</v>
+      </c>
+      <c r="H211" s="4">
+        <v>4.4</v>
+      </c>
+      <c r="I211" s="4">
+        <v>3.1</v>
+      </c>
+      <c r="J211" s="4">
+        <v>3.4</v>
+      </c>
+      <c r="K211" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="L211" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="M211" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="N211" s="16">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="6">
+        <v>44568.0</v>
+      </c>
+      <c r="B212" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C212" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="D212" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G212" s="4">
+        <v>15.5</v>
+      </c>
+      <c r="H212" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="I212" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="J212" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="K212" s="4">
+        <v>11.0</v>
+      </c>
+      <c r="L212" s="4">
+        <v>12.0</v>
+      </c>
+      <c r="M212" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="N212" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="O212" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="P212" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="Q212" s="4">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="6">
+        <v>44568.0</v>
+      </c>
+      <c r="B213" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C213" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="D213" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="G213" s="4">
+        <v>14.0</v>
+      </c>
+      <c r="H213" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="I213" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="J213" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="K213" s="4">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="6">
+        <v>44568.0</v>
+      </c>
+      <c r="B214" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C214" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="D214" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G214" s="4">
+        <v>13.4</v>
+      </c>
+      <c r="H214" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="I214" s="4">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="6">
+        <v>44568.0</v>
+      </c>
+      <c r="B215" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C215" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="D215" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G215" s="4">
+        <v>19.2</v>
+      </c>
+      <c r="H215" s="4">
+        <v>5.6</v>
+      </c>
+      <c r="I215" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="J215" s="4">
+        <v>3.7</v>
+      </c>
+      <c r="K215" s="4">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="6">
+        <v>44568.0</v>
+      </c>
+      <c r="B216" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C216" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="D216" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G216" s="4">
+        <v>9.5</v>
+      </c>
+      <c r="H216" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="I216" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="J216" s="4">
+        <v>7.8</v>
+      </c>
+      <c r="K216" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="L216" s="4">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="6">
+        <v>44568.0</v>
+      </c>
+      <c r="B217" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C217" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="D217" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="G217" s="4">
+        <v>15.7</v>
+      </c>
+      <c r="H217" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="I217" s="4">
+        <v>8.2</v>
+      </c>
+      <c r="J217" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="K217" s="4">
+        <v>3.6</v>
+      </c>
+      <c r="L217" s="4">
+        <v>1.5</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations>
     <dataValidation type="list" allowBlank="1" sqref="E2:E73">

--- a/nursery_monitoring/GB monitoring.xlsx
+++ b/nursery_monitoring/GB monitoring.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2012" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2018" uniqueCount="115">
   <si>
     <t>Date</t>
   </si>
@@ -216,6 +216,24 @@
   </si>
   <si>
     <t>M20</t>
+  </si>
+  <si>
+    <t>M21</t>
+  </si>
+  <si>
+    <t>M22</t>
+  </si>
+  <si>
+    <t>M23</t>
+  </si>
+  <si>
+    <t>M24</t>
+  </si>
+  <si>
+    <t>M25</t>
+  </si>
+  <si>
+    <t>M26</t>
   </si>
   <si>
     <t>APRO1</t>
@@ -420,11 +438,11 @@
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -19082,19 +19100,31 @@
       <c r="Z1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AA1" s="10"/>
-      <c r="AB1" s="10"/>
-      <c r="AC1" s="10"/>
-      <c r="AD1" s="10"/>
-      <c r="AE1" s="10"/>
-      <c r="AF1" s="10"/>
+      <c r="AA1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="3">
         <v>44410.0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C2" s="4">
         <v>1.0</v>
@@ -19127,7 +19157,7 @@
         <v>44410.0</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C3" s="4">
         <v>2.0</v>
@@ -19151,7 +19181,7 @@
         <v>44410.0</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C4" s="4">
         <v>3.0</v>
@@ -19184,7 +19214,7 @@
         <v>44410.0</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C5" s="4">
         <v>4.0</v>
@@ -19211,7 +19241,7 @@
         <v>44410.0</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C6" s="4">
         <v>1.0</v>
@@ -19235,7 +19265,7 @@
         <v>44410.0</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C7" s="4">
         <v>2.0</v>
@@ -19259,7 +19289,7 @@
         <v>44410.0</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C8" s="4">
         <v>3.0</v>
@@ -19289,7 +19319,7 @@
         <v>44410.0</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C9" s="4">
         <v>4.0</v>
@@ -19316,7 +19346,7 @@
         <v>44410.0</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C10" s="4">
         <v>1.0</v>
@@ -19343,7 +19373,7 @@
         <v>44410.0</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C11" s="4">
         <v>2.0</v>
@@ -19367,7 +19397,7 @@
         <v>44410.0</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C12" s="4">
         <v>3.0</v>
@@ -19397,7 +19427,7 @@
         <v>44410.0</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C13" s="4">
         <v>4.0</v>
@@ -19436,7 +19466,7 @@
         <v>44410.0</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C14" s="4">
         <v>1.0</v>
@@ -19460,7 +19490,7 @@
         <v>44410.0</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C15" s="4">
         <v>2.0</v>
@@ -19484,7 +19514,7 @@
         <v>44410.0</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C16" s="4">
         <v>3.0</v>
@@ -19511,7 +19541,7 @@
         <v>44410.0</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C17" s="4">
         <v>4.0</v>
@@ -19538,7 +19568,7 @@
         <v>44410.0</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C18" s="4">
         <v>1.0</v>
@@ -19562,7 +19592,7 @@
         <v>44410.0</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C19" s="4">
         <v>2.0</v>
@@ -19592,7 +19622,7 @@
         <v>44410.0</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C20" s="4">
         <v>3.0</v>
@@ -19619,7 +19649,7 @@
         <v>44410.0</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C21" s="4">
         <v>4.0</v>
@@ -19655,7 +19685,7 @@
         <v>44410.0</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C22" s="4">
         <v>1.0</v>
@@ -19688,7 +19718,7 @@
         <v>44410.0</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C23" s="4">
         <v>2.0</v>
@@ -19712,7 +19742,7 @@
         <v>44410.0</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C24" s="4">
         <v>3.0</v>
@@ -19751,7 +19781,7 @@
         <v>44410.0</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C25" s="4">
         <v>4.0</v>
@@ -19775,7 +19805,7 @@
         <v>44410.0</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C26" s="4">
         <v>1.0</v>
@@ -19814,7 +19844,7 @@
         <v>44410.0</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C27" s="4">
         <v>2.0</v>
@@ -19844,7 +19874,7 @@
         <v>44410.0</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C28" s="4">
         <v>3.0</v>
@@ -19880,7 +19910,7 @@
         <v>44410.0</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C29" s="4">
         <v>4.0</v>
@@ -19913,7 +19943,7 @@
         <v>44441.0</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C30" s="4">
         <v>1.0</v>
@@ -19949,7 +19979,7 @@
         <v>44441.0</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C31" s="4">
         <v>2.0</v>
@@ -19973,7 +20003,7 @@
         <v>44441.0</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C32" s="4">
         <v>3.0</v>
@@ -20018,7 +20048,7 @@
         <v>44441.0</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C33" s="4">
         <v>4.0</v>
@@ -20048,7 +20078,7 @@
         <v>44441.0</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C34" s="4">
         <v>1.0</v>
@@ -20072,7 +20102,7 @@
         <v>44441.0</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C35" s="4">
         <v>2.0</v>
@@ -20102,7 +20132,7 @@
         <v>44441.0</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C36" s="4">
         <v>3.0</v>
@@ -20141,7 +20171,7 @@
         <v>44441.0</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C37" s="1">
         <v>4.0</v>
@@ -20176,7 +20206,7 @@
         <v>44441.0</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C38" s="4">
         <v>1.0</v>
@@ -20203,7 +20233,7 @@
         <v>44441.0</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C39" s="4">
         <v>2.0</v>
@@ -20227,7 +20257,7 @@
         <v>44441.0</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C40" s="4">
         <v>3.0</v>
@@ -20266,7 +20296,7 @@
         <v>44441.0</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C41" s="4">
         <v>4.0</v>
@@ -20314,7 +20344,7 @@
         <v>44441.0</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C42" s="4">
         <v>1.0</v>
@@ -20341,7 +20371,7 @@
         <v>44441.0</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C43" s="4">
         <v>2.0</v>
@@ -20368,7 +20398,7 @@
         <v>44441.0</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C44" s="4">
         <v>3.0</v>
@@ -20398,7 +20428,7 @@
         <v>44441.0</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C45" s="4">
         <v>4.0</v>
@@ -20425,7 +20455,7 @@
         <v>44441.0</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C46" s="4">
         <v>1.0</v>
@@ -20449,7 +20479,7 @@
         <v>44441.0</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C47" s="4">
         <v>2.0</v>
@@ -20482,7 +20512,7 @@
         <v>44441.0</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C48" s="4">
         <v>3.0</v>
@@ -20515,7 +20545,7 @@
         <v>44441.0</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C49" s="4">
         <v>4.0</v>
@@ -20554,7 +20584,7 @@
         <v>44441.0</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C50" s="4">
         <v>1.0</v>
@@ -20593,7 +20623,7 @@
         <v>44441.0</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C51" s="4">
         <v>2.0</v>
@@ -20620,7 +20650,7 @@
         <v>44441.0</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C52" s="4">
         <v>3.0</v>
@@ -20668,7 +20698,7 @@
         <v>44441.0</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C53" s="4">
         <v>4.0</v>
@@ -20695,7 +20725,7 @@
         <v>44441.0</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C54" s="4">
         <v>1.0</v>
@@ -20703,7 +20733,7 @@
       <c r="D54" s="4">
         <v>1.0</v>
       </c>
-      <c r="E54" s="11"/>
+      <c r="E54" s="10"/>
       <c r="G54" s="4">
         <v>6.5</v>
       </c>
@@ -20731,7 +20761,7 @@
         <v>44441.0</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C55" s="4">
         <v>2.0</v>
@@ -20739,7 +20769,7 @@
       <c r="D55" s="4">
         <v>1.0</v>
       </c>
-      <c r="E55" s="11"/>
+      <c r="E55" s="10"/>
       <c r="G55" s="4">
         <v>7.4</v>
       </c>
@@ -20758,7 +20788,7 @@
         <v>44441.0</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C56" s="4">
         <v>3.0</v>
@@ -20766,7 +20796,7 @@
       <c r="D56" s="4">
         <v>1.0</v>
       </c>
-      <c r="E56" s="11"/>
+      <c r="E56" s="10"/>
       <c r="G56" s="4">
         <v>5.5</v>
       </c>
@@ -20803,7 +20833,7 @@
         <v>44441.0</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C57" s="4">
         <v>4.0</v>
@@ -20811,7 +20841,7 @@
       <c r="D57" s="4">
         <v>1.0</v>
       </c>
-      <c r="E57" s="11"/>
+      <c r="E57" s="10"/>
       <c r="G57" s="4">
         <v>9.2</v>
       </c>
@@ -20839,7 +20869,7 @@
         <v>44476.0</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C58" s="4">
         <v>1.0</v>
@@ -20892,7 +20922,7 @@
         <v>44476.0</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C59" s="4">
         <v>2.0</v>
@@ -20939,7 +20969,7 @@
         <v>44476.0</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C60" s="4">
         <v>3.0</v>
@@ -21016,7 +21046,7 @@
         <v>44476.0</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C61" s="4">
         <v>4.0</v>
@@ -21075,7 +21105,7 @@
         <v>44476.0</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C62" s="4">
         <v>1.0</v>
@@ -21101,7 +21131,7 @@
         <v>44476.0</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C63" s="4">
         <v>2.0</v>
@@ -21127,7 +21157,7 @@
         <v>44476.0</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C64" s="4">
         <v>3.0</v>
@@ -21162,7 +21192,7 @@
         <v>44476.0</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C65" s="4">
         <v>4.0</v>
@@ -21185,7 +21215,7 @@
         <v>44476.0</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C66" s="4">
         <v>1.0</v>
@@ -21214,7 +21244,7 @@
         <v>44476.0</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C67" s="4">
         <v>2.0</v>
@@ -21243,7 +21273,7 @@
         <v>44476.0</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C68" s="4">
         <v>3.0</v>
@@ -21281,7 +21311,7 @@
         <v>44476.0</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C69" s="4">
         <v>4.0</v>
@@ -21337,7 +21367,7 @@
         <v>44476.0</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C70" s="4">
         <v>1.0</v>
@@ -21375,7 +21405,7 @@
         <v>44476.0</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C71" s="4">
         <v>2.0</v>
@@ -21416,7 +21446,7 @@
         <v>44476.0</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C72" s="4">
         <v>3.0</v>
@@ -21475,7 +21505,7 @@
         <v>44476.0</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C73" s="4">
         <v>4.0</v>
@@ -21537,7 +21567,7 @@
         <v>44476.0</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C74" s="4">
         <v>1.0</v>
@@ -21608,7 +21638,7 @@
         <v>44476.0</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C75" s="4">
         <v>2.0</v>
@@ -21673,7 +21703,7 @@
         <v>44476.0</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C76" s="4">
         <v>3.0</v>
@@ -21723,7 +21753,7 @@
         <v>44476.0</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C77" s="4">
         <v>4.0</v>
@@ -21811,7 +21841,7 @@
         <v>44476.0</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C78" s="4">
         <v>1.0</v>
@@ -21861,7 +21891,7 @@
         <v>44476.0</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C79" s="4">
         <v>2.0</v>
@@ -21896,7 +21926,7 @@
         <v>44476.0</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C80" s="4">
         <v>3.0</v>
@@ -21937,7 +21967,7 @@
         <v>44476.0</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C81" s="4">
         <v>4.0</v>
@@ -21960,7 +21990,7 @@
         <v>44476.0</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C82" s="4">
         <v>1.0</v>
@@ -22019,7 +22049,7 @@
         <v>44476.0</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C83" s="4">
         <v>2.0</v>
@@ -22057,7 +22087,7 @@
         <v>44476.0</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C84" s="4">
         <v>3.0</v>
@@ -22125,7 +22155,7 @@
         <v>44476.0</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C85" s="4">
         <v>4.0</v>
@@ -22181,7 +22211,7 @@
         <v>44504.0</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C86" s="4">
         <v>1.0</v>
@@ -22225,7 +22255,7 @@
         <v>44504.0</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C87" s="4">
         <v>2.0</v>
@@ -22272,7 +22302,7 @@
         <v>44504.0</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C88" s="4">
         <v>3.0</v>
@@ -22328,7 +22358,7 @@
         <v>44504.0</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C89" s="4">
         <v>4.0</v>
@@ -22372,7 +22402,7 @@
         <v>44504.0</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C90" s="4">
         <v>1.0</v>
@@ -22401,7 +22431,7 @@
         <v>44504.0</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C91" s="4">
         <v>2.0</v>
@@ -22424,7 +22454,7 @@
         <v>44504.0</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C92" s="4">
         <v>3.0</v>
@@ -22450,7 +22480,7 @@
         <v>44504.0</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C93" s="4">
         <v>4.0</v>
@@ -22473,7 +22503,7 @@
         <v>44504.0</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C94" s="4">
         <v>1.0</v>
@@ -22499,7 +22529,7 @@
         <v>44504.0</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C95" s="4">
         <v>2.0</v>
@@ -22534,7 +22564,7 @@
         <v>44504.0</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C96" s="4">
         <v>3.0</v>
@@ -22575,7 +22605,7 @@
         <v>44504.0</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C97" s="4">
         <v>4.0</v>
@@ -22625,7 +22655,7 @@
         <v>44504.0</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C98" s="4">
         <v>1.0</v>
@@ -22657,7 +22687,7 @@
         <v>44504.0</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C99" s="4">
         <v>2.0</v>
@@ -22689,7 +22719,7 @@
         <v>44504.0</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C100" s="4">
         <v>3.0</v>
@@ -22760,7 +22790,7 @@
         <v>44504.0</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C101" s="4">
         <v>4.0</v>
@@ -22819,7 +22849,7 @@
         <v>44504.0</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C102" s="4">
         <v>1.0</v>
@@ -22887,7 +22917,7 @@
         <v>44504.0</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C103" s="4">
         <v>2.0</v>
@@ -22940,7 +22970,7 @@
         <v>44504.0</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C104" s="4">
         <v>3.0</v>
@@ -22987,7 +23017,7 @@
         <v>44504.0</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C105" s="4">
         <v>4.0</v>
@@ -23064,7 +23094,7 @@
         <v>44504.0</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C106" s="4">
         <v>1.0</v>
@@ -23105,7 +23135,7 @@
         <v>44504.0</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C107" s="4">
         <v>2.0</v>
@@ -23140,7 +23170,7 @@
         <v>44504.0</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C108" s="4">
         <v>3.0</v>
@@ -23184,7 +23214,7 @@
         <v>44504.0</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C109" s="4">
         <v>4.0</v>
@@ -23207,7 +23237,7 @@
         <v>44504.0</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C110" s="4">
         <v>1.0</v>
@@ -23266,7 +23296,7 @@
         <v>44504.0</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C111" s="4">
         <v>2.0</v>
@@ -23304,7 +23334,7 @@
         <v>44504.0</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C112" s="4">
         <v>3.0</v>
@@ -23363,7 +23393,7 @@
         <v>44504.0</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C113" s="4">
         <v>4.0</v>
@@ -23428,7 +23458,7 @@
         <v>44531.0</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C114" s="4">
         <v>1.0</v>
@@ -23475,7 +23505,7 @@
         <v>44531.0</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C115" s="4">
         <v>2.0</v>
@@ -23528,7 +23558,7 @@
         <v>44531.0</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C116" s="4">
         <v>3.0</v>
@@ -23587,7 +23617,7 @@
         <v>44531.0</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C117" s="4">
         <v>4.0</v>
@@ -23643,7 +23673,7 @@
         <v>44531.0</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C118" s="4">
         <v>1.0</v>
@@ -23669,7 +23699,7 @@
         <v>44531.0</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C119" s="4">
         <v>2.0</v>
@@ -23692,7 +23722,7 @@
         <v>44531.0</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C120" s="4">
         <v>3.0</v>
@@ -23724,7 +23754,7 @@
         <v>44531.0</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C121" s="4">
         <v>4.0</v>
@@ -23747,7 +23777,7 @@
         <v>44531.0</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C122" s="4">
         <v>1.0</v>
@@ -23785,7 +23815,7 @@
         <v>44531.0</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C123" s="4">
         <v>2.0</v>
@@ -23820,7 +23850,7 @@
         <v>44531.0</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C124" s="4">
         <v>3.0</v>
@@ -23840,7 +23870,7 @@
       <c r="J124" s="4">
         <v>2.4</v>
       </c>
-      <c r="K124" s="12">
+      <c r="K124" s="11">
         <v>10.0</v>
       </c>
       <c r="L124" s="4">
@@ -23855,7 +23885,7 @@
         <v>44531.0</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C125" s="4">
         <v>4.0</v>
@@ -23911,7 +23941,7 @@
         <v>44531.0</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C126" s="4">
         <v>1.0</v>
@@ -23967,7 +23997,7 @@
         <v>44531.0</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C127" s="4">
         <v>2.0</v>
@@ -24008,7 +24038,7 @@
         <v>44531.0</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C128" s="4">
         <v>3.0</v>
@@ -24088,7 +24118,7 @@
         <v>44531.0</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C129" s="4">
         <v>4.0</v>
@@ -24135,7 +24165,7 @@
         <v>44531.0</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C130" s="4">
         <v>1.0</v>
@@ -24203,7 +24233,7 @@
         <v>44531.0</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C131" s="4">
         <v>2.0</v>
@@ -24259,7 +24289,7 @@
         <v>44531.0</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C132" s="4">
         <v>3.0</v>
@@ -24306,7 +24336,7 @@
         <v>44531.0</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C133" s="4">
         <v>4.0</v>
@@ -24332,7 +24362,7 @@
         <v>44531.0</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C134" s="4">
         <v>1.0</v>
@@ -24358,7 +24388,7 @@
         <v>44531.0</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C135" s="4">
         <v>2.0</v>
@@ -24378,7 +24408,7 @@
         <v>44531.0</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C136" s="4">
         <v>3.0</v>
@@ -24404,7 +24434,7 @@
         <v>44531.0</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C137" s="4">
         <v>4.0</v>
@@ -24433,7 +24463,7 @@
         <v>44531.0</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C138" s="4">
         <v>1.0</v>
@@ -24462,7 +24492,7 @@
         <v>44531.0</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C139" s="4">
         <v>2.0</v>
@@ -24491,7 +24521,7 @@
         <v>44531.0</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C140" s="4">
         <v>3.0</v>
@@ -24517,7 +24547,7 @@
       <c r="L140" s="4">
         <v>1.5</v>
       </c>
-      <c r="M140" s="11">
+      <c r="M140" s="10">
         <f>2.5*13</f>
         <v>32.5</v>
       </c>
@@ -24527,7 +24557,7 @@
         <v>44531.0</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C141" s="4">
         <v>4.0</v>
@@ -24553,7 +24583,7 @@
         <v>44568.0</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C142" s="4">
         <v>1.0</v>
@@ -24627,7 +24657,7 @@
         <v>44568.0</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C143" s="4">
         <v>2.0</v>
@@ -24695,7 +24725,7 @@
         <v>44568.0</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C144" s="4">
         <v>3.0</v>
@@ -24775,7 +24805,7 @@
         <v>44568.0</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C145" s="4">
         <v>4.0</v>
@@ -24858,7 +24888,7 @@
         <v>44568.0</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C146" s="4">
         <v>1.0</v>
@@ -24881,7 +24911,7 @@
         <v>44568.0</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C147" s="4">
         <v>2.0</v>
@@ -24904,7 +24934,7 @@
         <v>44568.0</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C148" s="4">
         <v>3.0</v>
@@ -24930,7 +24960,7 @@
         <v>44568.0</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C149" s="4">
         <v>4.0</v>
@@ -24950,7 +24980,7 @@
         <v>44568.0</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C150" s="4">
         <v>1.0</v>
@@ -24985,7 +25015,7 @@
         <v>44568.0</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C151" s="4">
         <v>2.0</v>
@@ -25020,7 +25050,7 @@
         <v>44568.0</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C152" s="4">
         <v>3.0</v>
@@ -25076,7 +25106,7 @@
         <v>44568.0</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C153" s="4">
         <v>4.0</v>
@@ -25135,7 +25165,7 @@
         <v>44568.0</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C154" s="4">
         <v>1.0</v>
@@ -25197,7 +25227,7 @@
         <v>44568.0</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C155" s="4">
         <v>2.0</v>
@@ -25247,7 +25277,7 @@
         <v>44568.0</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C156" s="4">
         <v>3.0</v>
@@ -25324,7 +25354,7 @@
         <v>44568.0</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C157" s="4">
         <v>4.0</v>
@@ -25383,7 +25413,7 @@
         <v>44568.0</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C158" s="4">
         <v>1.0</v>
@@ -25448,7 +25478,7 @@
         <v>44568.0</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C159" s="4">
         <v>2.0</v>
@@ -25483,7 +25513,7 @@
         <v>44568.0</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C160" s="4">
         <v>3.0</v>
@@ -25542,7 +25572,7 @@
         <v>44568.0</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C161" s="4">
         <v>4.0</v>
@@ -25595,7 +25625,7 @@
         <v>44568.0</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C162" s="4">
         <v>1.0</v>
@@ -25648,7 +25678,7 @@
         <v>44568.0</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C163" s="4">
         <v>2.0</v>
@@ -25713,7 +25743,7 @@
         <v>44568.0</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C164" s="4">
         <v>3.0</v>
@@ -25778,7 +25808,7 @@
         <v>44568.0</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C165" s="4">
         <v>4.0</v>
@@ -25804,7 +25834,7 @@
         <v>44568.0</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C166" s="4">
         <v>1.0</v>
@@ -25875,7 +25905,7 @@
         <v>44568.0</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C167" s="4">
         <v>2.0</v>
@@ -25931,7 +25961,7 @@
         <v>44568.0</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C168" s="4">
         <v>3.0</v>
@@ -26011,7 +26041,7 @@
         <v>44568.0</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C169" s="4">
         <v>4.0</v>
@@ -26073,7 +26103,7 @@
         <v>44593.0</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C170" s="4">
         <v>1.0</v>
@@ -26141,7 +26171,7 @@
         <v>44593.0</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C171" s="4">
         <v>2.0</v>
@@ -26200,7 +26230,7 @@
         <v>44593.0</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C172" s="4">
         <v>3.0</v>
@@ -26256,7 +26286,7 @@
         <v>44593.0</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C173" s="4">
         <v>4.0</v>
@@ -26312,7 +26342,7 @@
         <v>44593.0</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C174" s="4">
         <v>1.0</v>
@@ -26335,7 +26365,7 @@
         <v>44593.0</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C175" s="4">
         <v>2.0</v>
@@ -26358,7 +26388,7 @@
         <v>44593.0</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C176" s="4">
         <v>3.0</v>
@@ -26381,7 +26411,7 @@
         <v>44593.0</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C177" s="4">
         <v>4.0</v>
@@ -26404,7 +26434,7 @@
         <v>44593.0</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C178" s="4">
         <v>1.0</v>
@@ -26430,7 +26460,7 @@
         <v>44593.0</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C179" s="4">
         <v>2.0</v>
@@ -26459,7 +26489,7 @@
         <v>44593.0</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C180" s="4">
         <v>3.0</v>
@@ -26503,7 +26533,7 @@
         <v>44593.0</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C181" s="4">
         <v>4.0</v>
@@ -26556,7 +26586,7 @@
         <v>44593.0</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C182" s="4">
         <v>1.0</v>
@@ -26618,7 +26648,7 @@
         <v>44593.0</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C183" s="4">
         <v>2.0</v>
@@ -26668,7 +26698,7 @@
         <v>44593.0</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C184" s="4">
         <v>3.0</v>
@@ -26742,7 +26772,7 @@
         <v>44593.0</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C185" s="4">
         <v>4.0</v>
@@ -26801,7 +26831,7 @@
         <v>44593.0</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C186" s="4">
         <v>1.0</v>
@@ -26881,7 +26911,7 @@
         <v>44593.0</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C187" s="4">
         <v>2.0</v>
@@ -26937,7 +26967,7 @@
         <v>44593.0</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C188" s="4">
         <v>3.0</v>
@@ -26990,7 +27020,7 @@
         <v>44593.0</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C189" s="4">
         <v>4.0</v>
@@ -27049,7 +27079,7 @@
         <v>44593.0</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C190" s="4">
         <v>1.0</v>
@@ -27093,7 +27123,7 @@
         <v>44593.0</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C191" s="4">
         <v>2.0</v>
@@ -27146,7 +27176,7 @@
         <v>44593.0</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C192" s="4">
         <v>3.0</v>
@@ -27217,7 +27247,7 @@
         <v>44593.0</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C193" s="4">
         <v>4.0</v>
@@ -27240,7 +27270,7 @@
         <v>44593.0</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C194" s="4">
         <v>1.0</v>
@@ -27306,24 +27336,18 @@
         <v>4.0</v>
       </c>
       <c r="Z194" s="4">
-        <v>12.0</v>
+        <v>8.0</v>
       </c>
       <c r="AA194" s="4">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
       <c r="AB194" s="4">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="AC194" s="4">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
       <c r="AD194" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="AE194" s="4">
-        <v>6.0</v>
-      </c>
-      <c r="AF194" s="4">
         <v>5.0</v>
       </c>
     </row>
@@ -27332,7 +27356,7 @@
         <v>44593.0</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C195" s="4">
         <v>2.0</v>
@@ -27388,7 +27412,7 @@
         <v>44593.0</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C196" s="4">
         <v>3.0</v>
@@ -27432,7 +27456,7 @@
         <v>44593.0</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C197" s="4">
         <v>4.0</v>
@@ -27494,7 +27518,7 @@
         <v>44621.0</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C198" s="4">
         <v>1.0</v>
@@ -27574,7 +27598,7 @@
         <v>44621.0</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C199" s="4">
         <v>2.0</v>
@@ -27642,7 +27666,7 @@
         <v>44621.0</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C200" s="4">
         <v>3.0</v>
@@ -27731,7 +27755,7 @@
         <v>44621.0</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C201" s="4">
         <v>4.0</v>
@@ -27796,7 +27820,7 @@
         <v>44621.0</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C202" s="4">
         <v>1.0</v>
@@ -27819,7 +27843,7 @@
         <v>44621.0</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C203" s="4">
         <v>2.0</v>
@@ -27842,7 +27866,7 @@
         <v>44621.0</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C204" s="4">
         <v>3.0</v>
@@ -27874,7 +27898,7 @@
         <v>44621.0</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C205" s="4">
         <v>4.0</v>
@@ -27897,7 +27921,7 @@
         <v>44621.0</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C206" s="4">
         <v>1.0</v>
@@ -27932,7 +27956,7 @@
         <v>44621.0</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C207" s="4">
         <v>2.0</v>
@@ -27967,7 +27991,7 @@
         <v>44621.0</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C208" s="4">
         <v>3.0</v>
@@ -28011,7 +28035,7 @@
         <v>44621.0</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C209" s="4">
         <v>4.0</v>
@@ -28061,7 +28085,7 @@
         <v>44621.0</v>
       </c>
       <c r="B210" s="4" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C210" s="4">
         <v>1.0</v>
@@ -28144,7 +28168,7 @@
         <v>44621.0</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C211" s="4">
         <v>2.0</v>
@@ -28188,7 +28212,7 @@
         <v>44621.0</v>
       </c>
       <c r="B212" s="4" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C212" s="4">
         <v>3.0</v>
@@ -28246,6 +28270,27 @@
       </c>
       <c r="W212" s="4">
         <v>3.0</v>
+      </c>
+      <c r="X212" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="Y212" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="Z212" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="AA212" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="AB212" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="AC212" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="AD212" s="4">
+        <v>5.0</v>
       </c>
     </row>
     <row r="213">
@@ -28253,7 +28298,7 @@
         <v>44621.0</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C213" s="4">
         <v>4.0</v>
@@ -28342,7 +28387,7 @@
         <v>44621.0</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C214" s="4">
         <v>1.0</v>
@@ -28434,7 +28479,7 @@
         <v>44621.0</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C215" s="4">
         <v>2.0</v>
@@ -28508,7 +28553,7 @@
         <v>44621.0</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C216" s="4">
         <v>3.0</v>
@@ -28549,16 +28594,20 @@
       <c r="Q216" s="1">
         <v>10.0</v>
       </c>
-      <c r="R216" s="10"/>
-      <c r="S216" s="10"/>
-      <c r="T216" s="10"/>
+      <c r="R216" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="S216" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="T216" s="12"/>
     </row>
     <row r="217">
       <c r="A217" s="6">
         <v>44621.0</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C217" s="4">
         <v>4.0</v>
@@ -28606,6 +28655,9 @@
         <v>16.0</v>
       </c>
       <c r="T217" s="1">
+        <v>24.0</v>
+      </c>
+      <c r="U217" s="4">
         <v>24.0</v>
       </c>
     </row>
@@ -28614,7 +28666,7 @@
         <v>44621.0</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C218" s="4">
         <v>1.0</v>
@@ -28679,7 +28731,7 @@
         <v>44621.0</v>
       </c>
       <c r="B219" s="4" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C219" s="4">
         <v>2.0</v>
@@ -28735,7 +28787,7 @@
         <v>44621.0</v>
       </c>
       <c r="B220" s="4" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C220" s="4">
         <v>3.0</v>
@@ -28794,7 +28846,7 @@
         <v>44621.0</v>
       </c>
       <c r="B221" s="4" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C221" s="4">
         <v>4.0</v>
@@ -28823,7 +28875,7 @@
         <v>44621.0</v>
       </c>
       <c r="B222" s="4" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C222" s="4">
         <v>1.0</v>
@@ -28879,7 +28931,7 @@
         <v>44621.0</v>
       </c>
       <c r="B223" s="4" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C223" s="4">
         <v>2.0</v>
@@ -28917,7 +28969,7 @@
         <v>44621.0</v>
       </c>
       <c r="B224" s="4" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C224" s="4">
         <v>3.0</v>
@@ -28967,7 +29019,7 @@
         <v>44621.0</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C225" s="4">
         <v>4.0</v>
@@ -29020,7 +29072,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col hidden="1" min="5" max="6" width="14.43"/>
+    <col hidden="1" min="4" max="6" width="14.43"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -29102,17 +29154,17 @@
       <c r="Z1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AA1" s="10"/>
-      <c r="AB1" s="10"/>
-      <c r="AC1" s="10"/>
-      <c r="AD1" s="10"/>
+      <c r="AA1" s="12"/>
+      <c r="AB1" s="12"/>
+      <c r="AC1" s="12"/>
+      <c r="AD1" s="12"/>
     </row>
     <row r="2">
       <c r="A2" s="3">
         <v>44410.0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C2" s="4">
         <v>1.0</v>
@@ -29152,7 +29204,7 @@
         <v>44410.0</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C3" s="4">
         <v>2.0</v>
@@ -29200,7 +29252,7 @@
         <v>44410.0</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C4" s="4">
         <v>3.0</v>
@@ -29240,7 +29292,7 @@
         <v>44410.0</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C5" s="4">
         <v>4.0</v>
@@ -29280,7 +29332,7 @@
         <v>44410.0</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C6" s="4">
         <v>1.0</v>
@@ -29324,7 +29376,7 @@
         <v>44410.0</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C7" s="4">
         <v>2.0</v>
@@ -29372,7 +29424,7 @@
         <v>44410.0</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C8" s="4">
         <v>3.0</v>
@@ -29412,7 +29464,7 @@
         <v>44410.0</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C9" s="4">
         <v>4.0</v>
@@ -29460,7 +29512,7 @@
         <v>44410.0</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C10" s="4">
         <v>1.0</v>
@@ -29502,7 +29554,7 @@
         <v>44410.0</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C11" s="4">
         <v>2.0</v>
@@ -29552,7 +29604,7 @@
         <v>44410.0</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C12" s="4">
         <v>3.0</v>
@@ -29606,7 +29658,7 @@
         <v>44410.0</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C13" s="4">
         <v>4.0</v>
@@ -29650,7 +29702,7 @@
         <v>44410.0</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C14" s="4">
         <v>1.0</v>
@@ -29694,7 +29746,7 @@
         <v>44410.0</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C15" s="4">
         <v>2.0</v>
@@ -29734,7 +29786,7 @@
         <v>44410.0</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C16" s="4">
         <v>3.0</v>
@@ -29778,7 +29830,7 @@
         <v>44410.0</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C17" s="4">
         <v>4.0</v>
@@ -29820,7 +29872,7 @@
         <v>44410.0</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C18" s="4">
         <v>1.0</v>
@@ -29860,7 +29912,7 @@
         <v>44410.0</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C19" s="4">
         <v>2.0</v>
@@ -29906,7 +29958,7 @@
         <v>44410.0</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C20" s="4">
         <v>3.0</v>
@@ -29946,7 +29998,7 @@
         <v>44410.0</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C21" s="4">
         <v>4.0</v>
@@ -29994,7 +30046,7 @@
         <v>44410.0</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C22" s="4">
         <v>1.0</v>
@@ -30036,7 +30088,7 @@
         <v>44410.0</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C23" s="4">
         <v>2.0</v>
@@ -30078,7 +30130,7 @@
         <v>44410.0</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C24" s="4">
         <v>3.0</v>
@@ -30122,7 +30174,7 @@
         <v>44410.0</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C25" s="4">
         <v>4.0</v>
@@ -30166,7 +30218,7 @@
         <v>44410.0</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C26" s="4">
         <v>1.0</v>
@@ -30206,7 +30258,7 @@
         <v>44410.0</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C27" s="4">
         <v>2.0</v>
@@ -30246,7 +30298,7 @@
         <v>44410.0</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C28" s="4">
         <v>3.0</v>
@@ -30290,7 +30342,7 @@
         <v>44410.0</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C29" s="4">
         <v>4.0</v>
@@ -30332,7 +30384,7 @@
         <v>44410.0</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C30" s="4">
         <v>1.0</v>
@@ -30384,7 +30436,7 @@
         <v>44410.0</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C31" s="4">
         <v>2.0</v>
@@ -30424,7 +30476,7 @@
         <v>44410.0</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C32" s="4">
         <v>3.0</v>
@@ -30468,7 +30520,7 @@
         <v>44410.0</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C33" s="4">
         <v>4.0</v>
@@ -30516,7 +30568,7 @@
         <v>44410.0</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C34" s="4">
         <v>1.0</v>
@@ -30556,7 +30608,7 @@
         <v>44410.0</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C35" s="4">
         <v>2.0</v>
@@ -30596,7 +30648,7 @@
         <v>44410.0</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C36" s="4">
         <v>3.0</v>
@@ -30642,7 +30694,7 @@
         <v>44410.0</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C37" s="4">
         <v>4.0</v>
@@ -30684,7 +30736,7 @@
         <v>44441.0</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C38" s="4">
         <v>1.0</v>
@@ -30724,7 +30776,7 @@
         <v>44441.0</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C39" s="4">
         <v>2.0</v>
@@ -30766,7 +30818,7 @@
         <v>44441.0</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C40" s="4">
         <v>3.0</v>
@@ -30806,7 +30858,7 @@
         <v>44441.0</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C41" s="1">
         <v>4.0</v>
@@ -30848,7 +30900,7 @@
         <v>44441.0</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C42" s="4">
         <v>1.0</v>
@@ -30888,7 +30940,7 @@
         <v>44441.0</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C43" s="4">
         <v>2.0</v>
@@ -30932,7 +30984,7 @@
         <v>44441.0</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C44" s="4">
         <v>3.0</v>
@@ -30972,7 +31024,7 @@
         <v>44441.0</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C45" s="4">
         <v>4.0</v>
@@ -31018,7 +31070,7 @@
         <v>44441.0</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C46" s="4">
         <v>1.0</v>
@@ -31060,7 +31112,7 @@
         <v>44441.0</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C47" s="4">
         <v>2.0</v>
@@ -31110,7 +31162,7 @@
         <v>44441.0</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C48" s="4">
         <v>3.0</v>
@@ -31160,7 +31212,7 @@
         <v>44441.0</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C49" s="4">
         <v>4.0</v>
@@ -31204,7 +31256,7 @@
         <v>44441.0</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C50" s="1">
         <v>1.0</v>
@@ -31248,7 +31300,7 @@
         <v>44441.0</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C51" s="4">
         <v>2.0</v>
@@ -31288,7 +31340,7 @@
         <v>44441.0</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C52" s="1">
         <v>3.0</v>
@@ -31330,7 +31382,7 @@
         <v>44441.0</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C53" s="4">
         <v>4.0</v>
@@ -31372,7 +31424,7 @@
         <v>44441.0</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C54" s="4">
         <v>1.0</v>
@@ -31412,7 +31464,7 @@
         <v>44441.0</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C55" s="4">
         <v>2.0</v>
@@ -31458,7 +31510,7 @@
         <v>44441.0</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C56" s="4">
         <v>3.0</v>
@@ -31498,7 +31550,7 @@
         <v>44441.0</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C57" s="4">
         <v>4.0</v>
@@ -31546,7 +31598,7 @@
         <v>44441.0</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C58" s="4">
         <v>1.0</v>
@@ -31588,7 +31640,7 @@
         <v>44441.0</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C59" s="4">
         <v>2.0</v>
@@ -31630,7 +31682,7 @@
         <v>44441.0</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C60" s="4">
         <v>3.0</v>
@@ -31674,7 +31726,7 @@
         <v>44441.0</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C61" s="4">
         <v>4.0</v>
@@ -31718,7 +31770,7 @@
         <v>44441.0</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C62" s="4">
         <v>1.0</v>
@@ -31758,7 +31810,7 @@
         <v>44441.0</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C63" s="4">
         <v>2.0</v>
@@ -31798,7 +31850,7 @@
         <v>44441.0</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C64" s="4">
         <v>3.0</v>
@@ -31844,7 +31896,7 @@
         <v>44441.0</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C65" s="4">
         <v>4.0</v>
@@ -31886,7 +31938,7 @@
         <v>44441.0</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C66" s="4">
         <v>1.0</v>
@@ -31936,7 +31988,7 @@
         <v>44441.0</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C67" s="4">
         <v>2.0</v>
@@ -31978,7 +32030,7 @@
         <v>44441.0</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C68" s="4">
         <v>3.0</v>
@@ -32028,7 +32080,7 @@
         <v>44441.0</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C69" s="1">
         <v>4.0</v>
@@ -32078,7 +32130,7 @@
         <v>44441.0</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C70" s="4">
         <v>1.0</v>
@@ -32118,7 +32170,7 @@
         <v>44441.0</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C71" s="4">
         <v>2.0</v>
@@ -32158,7 +32210,7 @@
         <v>44441.0</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C72" s="4">
         <v>3.0</v>
@@ -32206,7 +32258,7 @@
         <v>44441.0</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C73" s="1">
         <v>4.0</v>
@@ -32250,7 +32302,7 @@
         <v>44476.0</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C74" s="4">
         <v>1.0</v>
@@ -32295,7 +32347,7 @@
         <v>44476.0</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C75" s="4">
         <v>2.0</v>
@@ -32338,7 +32390,7 @@
         <v>44476.0</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C76" s="4">
         <v>3.0</v>
@@ -32379,7 +32431,7 @@
         <v>44476.0</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C77" s="4">
         <v>4.0</v>
@@ -32418,7 +32470,7 @@
         <v>44476.0</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C78" s="4">
         <v>1.0</v>
@@ -32467,7 +32519,7 @@
         <v>44476.0</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C79" s="4">
         <v>2.0</v>
@@ -32520,7 +32572,7 @@
         <v>44476.0</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C80" s="4">
         <v>3.0</v>
@@ -32565,7 +32617,7 @@
         <v>44476.0</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C81" s="4">
         <v>4.0</v>
@@ -32630,7 +32682,7 @@
         <v>44476.0</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C82" s="4">
         <v>1.0</v>
@@ -32673,7 +32725,7 @@
         <v>44476.0</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C83" s="4">
         <v>2.0</v>
@@ -32724,7 +32776,7 @@
         <v>44476.0</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C84" s="4">
         <v>3.0</v>
@@ -32785,7 +32837,7 @@
         <v>44476.0</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C85" s="4">
         <v>4.0</v>
@@ -32832,7 +32884,7 @@
         <v>44476.0</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C86" s="4">
         <v>1.0</v>
@@ -32873,7 +32925,7 @@
         <v>44476.0</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C87" s="4">
         <v>2.0</v>
@@ -32914,7 +32966,7 @@
         <v>44476.0</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C88" s="4">
         <v>3.0</v>
@@ -32953,7 +33005,7 @@
         <v>44476.0</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C89" s="4">
         <v>4.0</v>
@@ -32998,7 +33050,7 @@
         <v>44476.0</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C90" s="4">
         <v>1.0</v>
@@ -33041,7 +33093,7 @@
         <v>44476.0</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C91" s="4">
         <v>2.0</v>
@@ -33094,7 +33146,7 @@
         <v>44476.0</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C92" s="4">
         <v>3.0</v>
@@ -33139,7 +33191,7 @@
         <v>44476.0</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C93" s="4">
         <v>4.0</v>
@@ -33196,7 +33248,7 @@
         <v>44476.0</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C94" s="4">
         <v>1.0</v>
@@ -33235,7 +33287,7 @@
         <v>44476.0</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C95" s="4">
         <v>2.0</v>
@@ -33276,7 +33328,7 @@
         <v>44476.0</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C96" s="4">
         <v>3.0</v>
@@ -33319,7 +33371,7 @@
         <v>44476.0</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C97" s="4">
         <v>4.0</v>
@@ -33360,7 +33412,7 @@
         <v>44476.0</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C98" s="4">
         <v>1.0</v>
@@ -33401,7 +33453,7 @@
         <v>44476.0</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C99" s="4">
         <v>2.0</v>
@@ -33440,7 +33492,7 @@
         <v>44476.0</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C100" s="4">
         <v>3.0</v>
@@ -33489,7 +33541,7 @@
         <v>44476.0</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C101" s="4">
         <v>4.0</v>
@@ -33532,7 +33584,7 @@
         <v>44476.0</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C102" s="4">
         <v>1.0</v>
@@ -33589,7 +33641,7 @@
         <v>44476.0</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C103" s="4">
         <v>2.0</v>
@@ -33634,7 +33686,7 @@
         <v>44476.0</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C104" s="4">
         <v>3.0</v>
@@ -33691,7 +33743,7 @@
         <v>44476.0</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C105" s="4">
         <v>4.0</v>
@@ -33738,7 +33790,7 @@
         <v>44476.0</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C106" s="4">
         <v>1.0</v>
@@ -33777,7 +33829,7 @@
         <v>44476.0</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C107" s="4">
         <v>2.0</v>
@@ -33818,7 +33870,7 @@
         <v>44476.0</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C108" s="4">
         <v>3.0</v>
@@ -33867,7 +33919,7 @@
         <v>44476.0</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C109" s="4">
         <v>4.0</v>
@@ -33908,7 +33960,7 @@
         <v>44504.0</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C110" s="4">
         <v>1.0</v>
@@ -33951,7 +34003,7 @@
         <v>44504.0</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C111" s="4">
         <v>2.0</v>
@@ -33993,7 +34045,7 @@
         <v>44504.0</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C112" s="4">
         <v>3.0</v>
@@ -34033,7 +34085,7 @@
         <v>44504.0</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C113" s="4">
         <v>4.0</v>
@@ -34071,7 +34123,7 @@
         <v>44504.0</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C114" s="4">
         <v>1.0</v>
@@ -34131,7 +34183,7 @@
         <v>44504.0</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C115" s="4">
         <v>2.0</v>
@@ -34189,7 +34241,7 @@
         <v>44504.0</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C116" s="4">
         <v>3.0</v>
@@ -34235,7 +34287,7 @@
         <v>44504.0</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C117" s="4">
         <v>4.0</v>
@@ -34295,7 +34347,7 @@
         <v>44504.0</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C118" s="4">
         <v>1.0</v>
@@ -34335,7 +34387,7 @@
         <v>44504.0</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C119" s="4">
         <v>2.0</v>
@@ -34381,7 +34433,7 @@
         <v>44504.0</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C120" s="4">
         <v>3.0</v>
@@ -34431,7 +34483,7 @@
         <v>44504.0</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C121" s="4">
         <v>4.0</v>
@@ -34479,7 +34531,7 @@
         <v>44504.0</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C122" s="4">
         <v>1.0</v>
@@ -34519,7 +34571,7 @@
         <v>44504.0</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C123" s="4">
         <v>2.0</v>
@@ -34557,7 +34609,7 @@
         <v>44504.0</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C124" s="4">
         <v>3.0</v>
@@ -34593,7 +34645,7 @@
         <v>44504.0</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C125" s="4">
         <v>4.0</v>
@@ -34637,7 +34689,7 @@
         <v>44504.0</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C126" s="4">
         <v>1.0</v>
@@ -34677,7 +34729,7 @@
         <v>44504.0</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C127" s="4">
         <v>2.0</v>
@@ -34725,7 +34777,7 @@
         <v>44504.0</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C128" s="4">
         <v>3.0</v>
@@ -34769,7 +34821,7 @@
         <v>44504.0</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C129" s="4">
         <v>4.0</v>
@@ -34819,7 +34871,7 @@
         <v>44504.0</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C130" s="4">
         <v>1.0</v>
@@ -34857,7 +34909,7 @@
         <v>44504.0</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C131" s="4">
         <v>2.0</v>
@@ -34895,7 +34947,7 @@
         <v>44504.0</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C132" s="4">
         <v>3.0</v>
@@ -34935,7 +34987,7 @@
         <v>44504.0</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C133" s="4">
         <v>4.0</v>
@@ -34977,7 +35029,7 @@
         <v>44504.0</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C134" s="4">
         <v>1.0</v>
@@ -35015,7 +35067,7 @@
         <v>44504.0</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C135" s="4">
         <v>2.0</v>
@@ -35053,7 +35105,7 @@
         <v>44504.0</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C136" s="4">
         <v>3.0</v>
@@ -35099,7 +35151,7 @@
         <v>44504.0</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C137" s="4">
         <v>4.0</v>
@@ -35141,7 +35193,7 @@
         <v>44504.0</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C138" s="4">
         <v>1.0</v>
@@ -35195,7 +35247,7 @@
         <v>44504.0</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C139" s="4">
         <v>2.0</v>
@@ -35237,7 +35289,7 @@
         <v>44504.0</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C140" s="4">
         <v>3.0</v>
@@ -35293,7 +35345,7 @@
         <v>44504.0</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C141" s="4">
         <v>4.0</v>
@@ -35339,7 +35391,7 @@
         <v>44504.0</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C142" s="4">
         <v>1.0</v>
@@ -35359,7 +35411,7 @@
         <v>44504.0</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C143" s="4">
         <v>2.0</v>
@@ -35382,7 +35434,7 @@
         <v>44504.0</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C144" s="4">
         <v>3.0</v>
@@ -35411,7 +35463,7 @@
         <v>44504.0</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C145" s="4">
         <v>4.0</v>
@@ -35440,7 +35492,7 @@
         <v>44531.0</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C146" s="4">
         <v>1.0</v>
@@ -35463,7 +35515,7 @@
         <v>44531.0</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C147" s="4">
         <v>2.0</v>
@@ -35489,7 +35541,7 @@
         <v>44531.0</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C148" s="4">
         <v>3.0</v>
@@ -35512,7 +35564,7 @@
         <v>44531.0</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C149" s="4">
         <v>4.0</v>
@@ -35532,7 +35584,7 @@
         <v>44531.0</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C150" s="4">
         <v>1.0</v>
@@ -35585,7 +35637,7 @@
         <v>44531.0</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C151" s="4">
         <v>2.0</v>
@@ -35644,7 +35696,7 @@
         <v>44531.0</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C152" s="4">
         <v>3.0</v>
@@ -35685,7 +35737,7 @@
         <v>44531.0</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C153" s="4">
         <v>4.0</v>
@@ -35747,7 +35799,7 @@
         <v>44531.0</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C154" s="4">
         <v>1.0</v>
@@ -35770,7 +35822,7 @@
         <v>44531.0</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C155" s="4">
         <v>2.0</v>
@@ -35805,7 +35857,7 @@
         <v>44531.0</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C156" s="4">
         <v>3.0</v>
@@ -35846,7 +35898,7 @@
         <v>44531.0</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C157" s="4">
         <v>4.0</v>
@@ -35887,7 +35939,7 @@
         <v>44531.0</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C158" s="4">
         <v>1.0</v>
@@ -35910,7 +35962,7 @@
         <v>44531.0</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C159" s="4">
         <v>2.0</v>
@@ -35939,7 +35991,7 @@
         <v>44531.0</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C160" s="4">
         <v>3.0</v>
@@ -35956,7 +36008,7 @@
         <v>44531.0</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C161" s="4">
         <v>4.0</v>
@@ -35982,7 +36034,7 @@
         <v>44531.0</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C162" s="4">
         <v>1.0</v>
@@ -36005,7 +36057,7 @@
         <v>44531.0</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C163" s="4">
         <v>2.0</v>
@@ -36052,7 +36104,7 @@
         <v>44531.0</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C164" s="4">
         <v>3.0</v>
@@ -36081,7 +36133,7 @@
         <v>44531.0</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C165" s="4">
         <v>4.0</v>
@@ -36125,7 +36177,7 @@
         <v>44531.0</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C166" s="4">
         <v>1.0</v>
@@ -36145,7 +36197,7 @@
         <v>44531.0</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C167" s="4">
         <v>2.0</v>
@@ -36168,7 +36220,7 @@
         <v>44531.0</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C168" s="4">
         <v>3.0</v>
@@ -36191,7 +36243,7 @@
         <v>44531.0</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C169" s="4">
         <v>4.0</v>
@@ -36217,7 +36269,7 @@
         <v>44531.0</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C170" s="4">
         <v>1.0</v>
@@ -36237,7 +36289,7 @@
         <v>44531.0</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C171" s="4">
         <v>2.0</v>
@@ -36260,7 +36312,7 @@
         <v>44531.0</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C172" s="4">
         <v>3.0</v>
@@ -36289,7 +36341,7 @@
         <v>44531.0</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C173" s="4">
         <v>4.0</v>
@@ -36318,7 +36370,7 @@
         <v>44531.0</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C174" s="4">
         <v>1.0</v>
@@ -36356,7 +36408,7 @@
         <v>44531.0</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C175" s="4">
         <v>2.0</v>
@@ -36385,7 +36437,7 @@
         <v>44531.0</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C176" s="4">
         <v>3.0</v>
@@ -36432,7 +36484,7 @@
         <v>44531.0</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C177" s="4">
         <v>4.0</v>
@@ -36464,7 +36516,7 @@
         <v>44531.0</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C178" s="4">
         <v>1.0</v>
@@ -36484,7 +36536,7 @@
         <v>44531.0</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C179" s="4">
         <v>2.0</v>
@@ -36507,7 +36559,7 @@
         <v>44531.0</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C180" s="4">
         <v>3.0</v>
@@ -36536,7 +36588,7 @@
         <v>44531.0</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C181" s="4">
         <v>4.0</v>
@@ -36565,7 +36617,7 @@
         <v>44568.0</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C182" s="4">
         <v>1.0</v>
@@ -36597,7 +36649,7 @@
         <v>44568.0</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C183" s="4">
         <v>2.0</v>
@@ -36629,7 +36681,7 @@
         <v>44568.0</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C184" s="4">
         <v>3.0</v>
@@ -36658,7 +36710,7 @@
         <v>44568.0</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C185" s="4">
         <v>4.0</v>
@@ -36681,7 +36733,7 @@
         <v>44568.0</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C186" s="4">
         <v>1.0</v>
@@ -36737,7 +36789,7 @@
         <v>44568.0</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C187" s="4">
         <v>2.0</v>
@@ -36796,7 +36848,7 @@
         <v>44568.0</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C188" s="4">
         <v>3.0</v>
@@ -36837,7 +36889,7 @@
         <v>44568.0</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C189" s="4">
         <v>4.0</v>
@@ -36905,7 +36957,7 @@
         <v>44568.0</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C190" s="4">
         <v>1.0</v>
@@ -36934,7 +36986,7 @@
         <v>44568.0</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C191" s="4">
         <v>2.0</v>
@@ -36972,7 +37024,7 @@
         <v>44568.0</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C192" s="4">
         <v>3.0</v>
@@ -37016,7 +37068,7 @@
         <v>44568.0</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C193" s="4">
         <v>4.0</v>
@@ -37054,7 +37106,7 @@
         <v>44568.0</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C194" s="4">
         <v>1.0</v>
@@ -37083,7 +37135,7 @@
         <v>44568.0</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C195" s="4">
         <v>2.0</v>
@@ -37115,7 +37167,7 @@
         <v>44568.0</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C196" s="4">
         <v>3.0</v>
@@ -37132,7 +37184,7 @@
         <v>44568.0</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C197" s="4">
         <v>4.0</v>
@@ -37167,7 +37219,7 @@
         <v>44568.0</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C198" s="4">
         <v>1.0</v>
@@ -37190,7 +37242,7 @@
         <v>44568.0</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C199" s="4">
         <v>2.0</v>
@@ -37240,7 +37292,7 @@
         <v>44568.0</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C200" s="4">
         <v>3.0</v>
@@ -37275,7 +37327,7 @@
         <v>44568.0</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C201" s="4">
         <v>4.0</v>
@@ -37322,7 +37374,7 @@
         <v>44568.0</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C202" s="4">
         <v>1.0</v>
@@ -37342,7 +37394,7 @@
         <v>44568.0</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C203" s="4">
         <v>2.0</v>
@@ -37368,7 +37420,7 @@
         <v>44568.0</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C204" s="4">
         <v>3.0</v>
@@ -37391,7 +37443,7 @@
         <v>44568.0</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C205" s="4">
         <v>4.0</v>
@@ -37417,7 +37469,7 @@
         <v>44568.0</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C206" s="4">
         <v>1.0</v>
@@ -37440,7 +37492,7 @@
         <v>44568.0</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C207" s="4">
         <v>2.0</v>
@@ -37463,7 +37515,7 @@
         <v>44568.0</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C208" s="4">
         <v>3.0</v>
@@ -37498,7 +37550,7 @@
         <v>44568.0</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C209" s="4">
         <v>4.0</v>
@@ -37533,7 +37585,7 @@
         <v>44568.0</v>
       </c>
       <c r="B210" s="4" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C210" s="4">
         <v>1.0</v>
@@ -37577,7 +37629,7 @@
         <v>44568.0</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C211" s="4">
         <v>2.0</v>
@@ -37615,7 +37667,7 @@
         <v>44568.0</v>
       </c>
       <c r="B212" s="4" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C212" s="4">
         <v>3.0</v>
@@ -37662,7 +37714,7 @@
         <v>44568.0</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C213" s="4">
         <v>4.0</v>
@@ -37691,7 +37743,7 @@
         <v>44568.0</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C214" s="4">
         <v>1.0</v>
@@ -37714,7 +37766,7 @@
         <v>44568.0</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C215" s="4">
         <v>2.0</v>
@@ -37743,7 +37795,7 @@
         <v>44568.0</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C216" s="4">
         <v>3.0</v>
@@ -37775,7 +37827,7 @@
         <v>44568.0</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C217" s="4">
         <v>4.0</v>
@@ -37807,7 +37859,7 @@
         <v>44593.0</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C218" s="4">
         <v>1.0</v>
@@ -37845,7 +37897,7 @@
         <v>44593.0</v>
       </c>
       <c r="B219" s="4" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C219" s="4">
         <v>2.0</v>
@@ -37854,7 +37906,7 @@
         <v>1.0</v>
       </c>
       <c r="G219" s="4">
-        <v>2.0</v>
+        <v>20.0</v>
       </c>
       <c r="H219" s="4">
         <v>1.4</v>
@@ -37880,7 +37932,7 @@
         <v>44593.0</v>
       </c>
       <c r="B220" s="4" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C220" s="4">
         <v>3.0</v>
@@ -37906,7 +37958,7 @@
         <v>44593.0</v>
       </c>
       <c r="B221" s="4" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C221" s="4">
         <v>4.0</v>
@@ -37929,7 +37981,7 @@
         <v>44593.0</v>
       </c>
       <c r="B222" s="4" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C222" s="4">
         <v>1.0</v>
@@ -37985,7 +38037,7 @@
         <v>44593.0</v>
       </c>
       <c r="B223" s="4" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C223" s="4">
         <v>2.0</v>
@@ -38047,7 +38099,7 @@
         <v>44593.0</v>
       </c>
       <c r="B224" s="4" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C224" s="4">
         <v>3.0</v>
@@ -38082,7 +38134,7 @@
         <v>44593.0</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C225" s="4">
         <v>4.0</v>
@@ -38132,7 +38184,7 @@
         <v>44593.0</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C226" s="4">
         <v>1.0</v>
@@ -38167,7 +38219,7 @@
         <v>44593.0</v>
       </c>
       <c r="B227" s="4" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C227" s="4">
         <v>2.0</v>
@@ -38202,7 +38254,7 @@
         <v>44593.0</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C228" s="4">
         <v>3.0</v>
@@ -38243,7 +38295,7 @@
         <v>44593.0</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C229" s="4">
         <v>4.0</v>
@@ -38275,7 +38327,7 @@
         <v>44593.0</v>
       </c>
       <c r="B230" s="4" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C230" s="4">
         <v>1.0</v>
@@ -38310,7 +38362,7 @@
         <v>44593.0</v>
       </c>
       <c r="B231" s="4" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C231" s="4">
         <v>2.0</v>
@@ -38322,7 +38374,7 @@
         <v>16.2</v>
       </c>
       <c r="H231" s="4">
-        <v>1.4</v>
+        <v>7.4</v>
       </c>
       <c r="I231" s="4">
         <v>6.7</v>
@@ -38351,7 +38403,7 @@
         <v>44593.0</v>
       </c>
       <c r="B232" s="4" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C232" s="4">
         <v>3.0</v>
@@ -38368,7 +38420,7 @@
         <v>44593.0</v>
       </c>
       <c r="B233" s="4" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C233" s="4">
         <v>4.0</v>
@@ -38386,7 +38438,7 @@
         <v>9.0</v>
       </c>
       <c r="J233" s="4">
-        <v>1.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="234">
@@ -38394,7 +38446,7 @@
         <v>44593.0</v>
       </c>
       <c r="B234" s="4" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C234" s="4">
         <v>1.0</v>
@@ -38416,6 +38468,9 @@
       </c>
       <c r="K234" s="4">
         <v>3.0</v>
+      </c>
+      <c r="L234" s="4">
+        <v>6.0</v>
       </c>
     </row>
     <row r="235">
@@ -38423,7 +38478,7 @@
         <v>44593.0</v>
       </c>
       <c r="B235" s="4" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C235" s="4">
         <v>2.0</v>
@@ -38473,7 +38528,7 @@
         <v>44593.0</v>
       </c>
       <c r="B236" s="4" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C236" s="4">
         <v>3.0</v>
@@ -38508,7 +38563,7 @@
         <v>44593.0</v>
       </c>
       <c r="B237" s="4" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C237" s="4">
         <v>4.0</v>
@@ -38549,7 +38604,7 @@
         <v>44593.0</v>
       </c>
       <c r="B238" s="4" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C238" s="4">
         <v>1.0</v>
@@ -38566,7 +38621,7 @@
         <v>44593.0</v>
       </c>
       <c r="B239" s="4" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C239" s="4">
         <v>2.0</v>
@@ -38589,7 +38644,7 @@
         <v>44593.0</v>
       </c>
       <c r="B240" s="4" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C240" s="4">
         <v>3.0</v>
@@ -38612,7 +38667,7 @@
         <v>44593.0</v>
       </c>
       <c r="B241" s="4" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C241" s="4">
         <v>4.0</v>
@@ -38638,7 +38693,7 @@
         <v>44593.0</v>
       </c>
       <c r="B242" s="4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C242" s="4">
         <v>1.0</v>
@@ -38661,7 +38716,7 @@
         <v>44593.0</v>
       </c>
       <c r="B243" s="4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C243" s="4">
         <v>2.0</v>
@@ -38687,7 +38742,7 @@
         <v>44593.0</v>
       </c>
       <c r="B244" s="4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C244" s="4">
         <v>3.0</v>
@@ -38719,7 +38774,7 @@
         <v>44593.0</v>
       </c>
       <c r="B245" s="4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C245" s="4">
         <v>4.0</v>
@@ -38754,7 +38809,7 @@
         <v>44593.0</v>
       </c>
       <c r="B246" s="4" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C246" s="4">
         <v>1.0</v>
@@ -38801,7 +38856,7 @@
         <v>44593.0</v>
       </c>
       <c r="B247" s="4" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C247" s="4">
         <v>2.0</v>
@@ -38845,7 +38900,7 @@
         <v>44593.0</v>
       </c>
       <c r="B248" s="4" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C248" s="4">
         <v>3.0</v>
@@ -38889,7 +38944,7 @@
         <v>44593.0</v>
       </c>
       <c r="B249" s="4" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C249" s="4">
         <v>4.0</v>
@@ -38921,7 +38976,7 @@
         <v>44593.0</v>
       </c>
       <c r="B250" s="4" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C250" s="4">
         <v>1.0</v>
@@ -38944,7 +38999,7 @@
         <v>44593.0</v>
       </c>
       <c r="B251" s="4" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C251" s="4">
         <v>2.0</v>
@@ -38959,10 +39014,13 @@
         <v>5.5</v>
       </c>
       <c r="I251" s="4">
-        <v>34.0</v>
+        <v>3.4</v>
       </c>
       <c r="J251" s="4">
         <v>3.5</v>
+      </c>
+      <c r="K251" s="4">
+        <v>1.0</v>
       </c>
     </row>
     <row r="252">
@@ -38970,7 +39028,7 @@
         <v>44593.0</v>
       </c>
       <c r="B252" s="4" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C252" s="4">
         <v>3.0</v>
@@ -38996,7 +39054,7 @@
         <v>44593.0</v>
       </c>
       <c r="B253" s="4" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C253" s="4">
         <v>4.0</v>
@@ -39028,7 +39086,7 @@
         <v>44621.0</v>
       </c>
       <c r="B254" s="4" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C254" s="4">
         <v>1.0</v>
@@ -39056,6 +39114,9 @@
       </c>
       <c r="M254" s="4">
         <v>1.2</v>
+      </c>
+      <c r="N254" s="4">
+        <v>2.0</v>
       </c>
     </row>
     <row r="255">
@@ -39063,7 +39124,7 @@
         <v>44621.0</v>
       </c>
       <c r="B255" s="4" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C255" s="4">
         <v>2.0</v>
@@ -39107,7 +39168,7 @@
         <v>44621.0</v>
       </c>
       <c r="B256" s="4" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C256" s="4">
         <v>3.0</v>
@@ -39142,7 +39203,7 @@
         <v>44621.0</v>
       </c>
       <c r="B257" s="4" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C257" s="4">
         <v>4.0</v>
@@ -39165,7 +39226,7 @@
         <v>44621.0</v>
       </c>
       <c r="B258" s="4" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C258" s="4">
         <v>1.0</v>
@@ -39233,7 +39294,7 @@
         <v>44621.0</v>
       </c>
       <c r="B259" s="4" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C259" s="4">
         <v>2.0</v>
@@ -39293,6 +39354,9 @@
         <v>3.0</v>
       </c>
       <c r="X259" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="Y259" s="4">
         <v>3.0</v>
       </c>
     </row>
@@ -39301,7 +39365,7 @@
         <v>44621.0</v>
       </c>
       <c r="B260" s="4" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C260" s="4">
         <v>3.0</v>
@@ -39348,7 +39412,7 @@
         <v>44621.0</v>
       </c>
       <c r="B261" s="4" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C261" s="4">
         <v>4.0</v>
@@ -39413,7 +39477,7 @@
         <v>44621.0</v>
       </c>
       <c r="B262" s="4" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C262" s="4">
         <v>1.0</v>
@@ -39451,7 +39515,7 @@
         <v>44621.0</v>
       </c>
       <c r="B263" s="4" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C263" s="4">
         <v>2.0</v>
@@ -39498,7 +39562,7 @@
         <v>44621.0</v>
       </c>
       <c r="B264" s="4" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C264" s="4">
         <v>3.0</v>
@@ -39548,7 +39612,7 @@
         <v>44621.0</v>
       </c>
       <c r="B265" s="4" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C265" s="4">
         <v>4.0</v>
@@ -39586,7 +39650,7 @@
         <v>44621.0</v>
       </c>
       <c r="B266" s="4" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C266" s="4">
         <v>1.0</v>
@@ -39618,7 +39682,7 @@
         <v>44621.0</v>
       </c>
       <c r="B267" s="4" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C267" s="4">
         <v>2.0</v>
@@ -39653,7 +39717,7 @@
         <v>44621.0</v>
       </c>
       <c r="B268" s="4" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C268" s="4">
         <v>3.0</v>
@@ -39673,7 +39737,7 @@
         <v>44621.0</v>
       </c>
       <c r="B269" s="4" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C269" s="4">
         <v>4.0</v>
@@ -39714,7 +39778,7 @@
         <v>44621.0</v>
       </c>
       <c r="B270" s="4" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C270" s="4">
         <v>1.0</v>
@@ -39746,7 +39810,7 @@
         <v>44621.0</v>
       </c>
       <c r="B271" s="4" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C271" s="4">
         <v>2.0</v>
@@ -39802,7 +39866,7 @@
         <v>44621.0</v>
       </c>
       <c r="B272" s="4" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C272" s="4">
         <v>3.0</v>
@@ -39831,7 +39895,7 @@
         <v>44621.0</v>
       </c>
       <c r="B273" s="4" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C273" s="4">
         <v>4.0</v>
@@ -39881,7 +39945,7 @@
         <v>44621.0</v>
       </c>
       <c r="B274" s="4" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C274" s="4">
         <v>1.0</v>
@@ -39901,7 +39965,7 @@
         <v>44621.0</v>
       </c>
       <c r="B275" s="4" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C275" s="4">
         <v>2.0</v>
@@ -39933,7 +39997,7 @@
         <v>44621.0</v>
       </c>
       <c r="B276" s="4" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C276" s="4">
         <v>3.0</v>
@@ -39962,7 +40026,7 @@
         <v>44621.0</v>
       </c>
       <c r="B277" s="4" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C277" s="4">
         <v>4.0</v>
@@ -39988,7 +40052,7 @@
         <v>44621.0</v>
       </c>
       <c r="B278" s="4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C278" s="4">
         <v>1.0</v>
@@ -40011,7 +40075,7 @@
         <v>44621.0</v>
       </c>
       <c r="B279" s="4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C279" s="4">
         <v>2.0</v>
@@ -40034,7 +40098,7 @@
         <v>44621.0</v>
       </c>
       <c r="B280" s="4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C280" s="4">
         <v>3.0</v>
@@ -40072,7 +40136,7 @@
         <v>44621.0</v>
       </c>
       <c r="B281" s="4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C281" s="4">
         <v>4.0</v>
@@ -40104,7 +40168,7 @@
         <v>44621.0</v>
       </c>
       <c r="B282" s="4" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C282" s="4">
         <v>1.0</v>
@@ -40169,7 +40233,7 @@
         <v>44621.0</v>
       </c>
       <c r="B283" s="4" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C283" s="4">
         <v>2.0</v>
@@ -40210,7 +40274,7 @@
         <v>44621.0</v>
       </c>
       <c r="B284" s="4" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C284" s="4">
         <v>3.0</v>
@@ -40263,7 +40327,7 @@
         <v>44621.0</v>
       </c>
       <c r="B285" s="4" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C285" s="4">
         <v>4.0</v>
@@ -40295,7 +40359,7 @@
         <v>44621.0</v>
       </c>
       <c r="B286" s="4" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C286" s="4">
         <v>1.0</v>
@@ -40315,7 +40379,7 @@
         <v>44621.0</v>
       </c>
       <c r="B287" s="4" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C287" s="4">
         <v>2.0</v>
@@ -40338,7 +40402,7 @@
         <v>44621.0</v>
       </c>
       <c r="B288" s="4" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C288" s="4">
         <v>3.0</v>
@@ -40373,7 +40437,7 @@
         <v>44621.0</v>
       </c>
       <c r="B289" s="4" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C289" s="4">
         <v>4.0</v>
@@ -40430,36 +40494,36 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="4" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>10</v>
@@ -40475,7 +40539,7 @@
         <v>1</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="I2" s="16">
         <f>MEDIAN(E2:E24)</f>
@@ -40492,7 +40556,7 @@
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>12</v>
@@ -40508,7 +40572,7 @@
         <v>0.8</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="I3" s="16">
         <f>MEDIAN(E25:E31)</f>
@@ -40524,7 +40588,7 @@
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>13</v>
@@ -40540,7 +40604,7 @@
         <v>1</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="I4" s="16">
         <f>MEDIAN(E32:E40)</f>
@@ -40556,7 +40620,7 @@
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>14</v>
@@ -40574,7 +40638,7 @@
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>15</v>
@@ -40592,7 +40656,7 @@
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>16</v>
@@ -40610,7 +40674,7 @@
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>17</v>
@@ -40628,7 +40692,7 @@
     </row>
     <row r="9">
       <c r="A9" s="4" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>18</v>
@@ -40646,7 +40710,7 @@
     </row>
     <row r="10">
       <c r="A10" s="4" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>19</v>
@@ -40664,7 +40728,7 @@
     </row>
     <row r="11">
       <c r="A11" s="4" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>20</v>
@@ -40682,7 +40746,7 @@
     </row>
     <row r="12">
       <c r="A12" s="4" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>21</v>
@@ -40700,7 +40764,7 @@
     </row>
     <row r="13">
       <c r="A13" s="4" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>22</v>
@@ -40718,7 +40782,7 @@
     </row>
     <row r="14">
       <c r="A14" s="4" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>23</v>
@@ -40736,7 +40800,7 @@
     </row>
     <row r="15">
       <c r="A15" s="4" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>24</v>
@@ -40754,7 +40818,7 @@
     </row>
     <row r="16">
       <c r="A16" s="4" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>25</v>
@@ -40772,7 +40836,7 @@
     </row>
     <row r="17">
       <c r="A17" s="4" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>26</v>
@@ -40790,7 +40854,7 @@
     </row>
     <row r="18">
       <c r="A18" s="4" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>27</v>
@@ -40808,7 +40872,7 @@
     </row>
     <row r="19">
       <c r="A19" s="4" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>28</v>
@@ -40826,7 +40890,7 @@
     </row>
     <row r="20">
       <c r="A20" s="4" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>29</v>
@@ -40844,7 +40908,7 @@
     </row>
     <row r="21">
       <c r="A21" s="4" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>30</v>
@@ -40862,7 +40926,7 @@
     </row>
     <row r="22">
       <c r="A22" s="4" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>31</v>
@@ -40880,7 +40944,7 @@
     </row>
     <row r="23">
       <c r="A23" s="4" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>32</v>
@@ -40898,7 +40962,7 @@
     </row>
     <row r="24">
       <c r="A24" s="4" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>33</v>
@@ -40916,10 +40980,10 @@
     </row>
     <row r="25">
       <c r="A25" s="4" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C25" s="4">
         <v>4.0</v>
@@ -40934,10 +40998,10 @@
     </row>
     <row r="26">
       <c r="A26" s="4" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="C26" s="4">
         <v>5.0</v>
@@ -40952,10 +41016,10 @@
     </row>
     <row r="27">
       <c r="A27" s="4" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="C27" s="4">
         <v>4.0</v>
@@ -40970,10 +41034,10 @@
     </row>
     <row r="28">
       <c r="A28" s="4" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="C28" s="4">
         <v>4.0</v>
@@ -40988,10 +41052,10 @@
     </row>
     <row r="29">
       <c r="A29" s="4" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C29" s="4">
         <v>4.0</v>
@@ -41006,10 +41070,10 @@
     </row>
     <row r="30">
       <c r="A30" s="4" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="C30" s="4">
         <v>4.0</v>
@@ -41024,10 +41088,10 @@
     </row>
     <row r="31">
       <c r="A31" s="4" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="C31" s="4">
         <v>4.0</v>
@@ -41042,10 +41106,10 @@
     </row>
     <row r="32">
       <c r="A32" s="4" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="C32" s="4">
         <v>5.0</v>
@@ -41060,10 +41124,10 @@
     </row>
     <row r="33">
       <c r="A33" s="4" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="C33" s="4">
         <v>4.0</v>
@@ -41078,10 +41142,10 @@
     </row>
     <row r="34">
       <c r="A34" s="4" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="C34" s="4">
         <v>4.0</v>
@@ -41096,10 +41160,10 @@
     </row>
     <row r="35">
       <c r="A35" s="4" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="C35" s="4">
         <v>6.0</v>
@@ -41114,10 +41178,10 @@
     </row>
     <row r="36">
       <c r="A36" s="4" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C36" s="4">
         <v>4.0</v>
@@ -41132,10 +41196,10 @@
     </row>
     <row r="37">
       <c r="A37" s="4" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C37" s="4">
         <v>4.0</v>
@@ -41150,10 +41214,10 @@
     </row>
     <row r="38">
       <c r="A38" s="4" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="C38" s="4">
         <v>4.0</v>
@@ -41168,10 +41232,10 @@
     </row>
     <row r="39">
       <c r="A39" s="4" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="C39" s="4">
         <v>5.0</v>
@@ -41186,10 +41250,10 @@
     </row>
     <row r="40">
       <c r="A40" s="4" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C40" s="4">
         <v>5.0</v>
